--- a/src/tests/test_excel-1.xlsx
+++ b/src/tests/test_excel-1.xlsx
@@ -167,7 +167,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -294,9 +294,9 @@
     </comment>
     <comment ref="G1" authorId="0" shapeId="0">
       <text>
-        <t>metadataClassification:
+        <t>dataCatalogRecordAccessLevel:
 The classification level of the metadata. This should be 'public' for data catalog records that are reported to data.gov, and 'non-public' for data catalog records that are not reported.
-&lt;dhs:metadataClassification&gt;</t>
+&lt;dhs:dataCatalogRecordAccessLevel&gt;</t>
       </text>
     </comment>
     <comment ref="H1" authorId="0" shapeId="0">
@@ -658,166 +658,180 @@
     </comment>
     <comment ref="BG1" authorId="0" shapeId="0">
       <text>
-        <t>characteristics:
-Specific container to hold various data characteristics.
-&lt;dhs:characteristics&gt;</t>
-      </text>
-    </comment>
-    <comment ref="BH1" authorId="0" shapeId="0">
-      <text>
         <t>ch-person-level:
 The dataset contains person-level records.
 &lt;dhs:ch-person-level&gt;</t>
       </text>
     </comment>
-    <comment ref="BI1" authorId="0" shapeId="0">
+    <comment ref="BH1" authorId="0" shapeId="0">
       <text>
         <t>ch-financial:
 The dataset contains financial information.
 &lt;dhs:ch-financial&gt;</t>
       </text>
     </comment>
-    <comment ref="BJ1" authorId="0" shapeId="0">
+    <comment ref="BI1" authorId="0" shapeId="0">
       <text>
         <t>ch-event-records:
 The dataset contains information about events that are tagged with a specific place and time.
 &lt;dhs:ch-event-records&gt;</t>
       </text>
     </comment>
-    <comment ref="BK1" authorId="0" shapeId="0">
+    <comment ref="BJ1" authorId="0" shapeId="0">
       <text>
         <t>ch-faces:
 The dataset contains human faces.
 &lt;dhs:ch-faces&gt;</t>
       </text>
     </comment>
-    <comment ref="BL1" authorId="0" shapeId="0">
+    <comment ref="BK1" authorId="0" shapeId="0">
       <text>
         <t>ch-fingerprints:
 The dataset contains fingerprints.
 &lt;dhs:ch-fingerprints&gt;</t>
       </text>
     </comment>
-    <comment ref="BM1" authorId="0" shapeId="0">
+    <comment ref="BL1" authorId="0" shapeId="0">
       <text>
         <t>ch-cui:
 The dataset contains controlled unclassified information.
 &lt;dhs:ch-cui&gt;</t>
       </text>
     </comment>
-    <comment ref="BN1" authorId="0" shapeId="0">
+    <comment ref="BM1" authorId="0" shapeId="0">
       <text>
         <t>ch-phi:
 The dataset contains protected health information.
 &lt;dhs:ch-phi&gt;</t>
       </text>
     </comment>
-    <comment ref="BO1" authorId="0" shapeId="0">
+    <comment ref="BN1" authorId="0" shapeId="0">
       <text>
         <t>ch-pii:
 The dataset contains personally identifiable information under the controlling legal definition of PII.
 &lt;dhs:ch-pii&gt;</t>
       </text>
     </comment>
-    <comment ref="BP1" authorId="0" shapeId="0">
+    <comment ref="BO1" authorId="0" shapeId="0">
       <text>
         <t>ch-geospatial:
 The dataset contains geospatial information.
 &lt;dhs:ch-geospatial&gt;</t>
       </text>
     </comment>
-    <comment ref="BQ1" authorId="0" shapeId="0">
+    <comment ref="BP1" authorId="0" shapeId="0">
       <text>
         <t>ch-environmental:
 The dataset contains environmental information.
 &lt;dhs:ch-environmental&gt;</t>
       </text>
     </comment>
-    <comment ref="BR1" authorId="0" shapeId="0">
+    <comment ref="BQ1" authorId="0" shapeId="0">
       <text>
         <t>ch-fisa:
 The dataset contains information pretaining to the Foreign Intelligence Surveillance Act (FISA).
 &lt;dhs:ch-fisa&gt;</t>
       </text>
     </comment>
-    <comment ref="BS1" authorId="0" shapeId="0">
+    <comment ref="BR1" authorId="0" shapeId="0">
       <text>
         <t>ch-8usc1367:
 The dataset contains 8 USC 1367.
 &lt;dhs:ch-8usc1367&gt;</t>
       </text>
     </comment>
-    <comment ref="BT1" authorId="0" shapeId="0">
+    <comment ref="BS1" authorId="0" shapeId="0">
       <text>
         <t>ch-propin:
 The dataset contains proprietary commercial information.
 &lt;dhs:ch-propin&gt;</t>
       </text>
     </comment>
-    <comment ref="BU1" authorId="0" shapeId="0">
+    <comment ref="BT1" authorId="0" shapeId="0">
       <text>
         <t>ch-immigration:
 The dataset contains information pertaining to immigration.
 &lt;dhs:ch-immigration&gt;</t>
       </text>
     </comment>
-    <comment ref="BV1" authorId="0" shapeId="0">
+    <comment ref="BU1" authorId="0" shapeId="0">
       <text>
         <t>ch-criticalInfrastructure:
 The dataset contains critical infrastructure information.
 &lt;dhs:ch-criticalInfrastructure&gt;</t>
       </text>
     </comment>
+    <comment ref="BV1" authorId="0" shapeId="0">
+      <text>
+        <t>ch-pcii:
+The dataset contains Protected Critical Infrastructure Information (PCII).
+&lt;dhs:ch-pcii&gt;</t>
+      </text>
+    </comment>
     <comment ref="BW1" authorId="0" shapeId="0">
+      <text>
+        <t>ch-biometrics:
+The dataset contains biometric information.
+&lt;dhs:ch-biometrics&gt;</t>
+      </text>
+    </comment>
+    <comment ref="BX1" authorId="0" shapeId="0">
       <text>
         <t>ch-disseminationRestrictions:
 The information has dissemination restrictions.
 &lt;dhs:ch-disseminationRestrictions&gt;</t>
       </text>
     </comment>
-    <comment ref="BX1" authorId="0" shapeId="0">
+    <comment ref="BY1" authorId="0" shapeId="0">
       <text>
         <t>hostingLocation:
 Where the data physically reside.
 &lt;dhs:hostingLocation&gt;</t>
       </text>
     </comment>
-    <comment ref="BY1" authorId="0" shapeId="0">
+    <comment ref="BZ1" authorId="0" shapeId="0">
       <text>
         <t>hostedInCloud:
 If the dataset's location is in the cloud.
 &lt;dhs:hostedInCloud&gt;</t>
       </text>
     </comment>
-    <comment ref="BZ1" authorId="0" shapeId="0">
+    <comment ref="CA1" authorId="0" shapeId="0">
       <text>
         <t>easilyAccessibleByCreatingComponent:
 The information can be easily accessed by individuals within the component that created it.
 &lt;dhs:easilyAccessibleByCreatingComponent&gt;</t>
       </text>
     </comment>
-    <comment ref="CA1" authorId="0" shapeId="0">
+    <comment ref="CB1" authorId="0" shapeId="0">
       <text>
         <t>easilyAccessibleByAllComponents:
 The information can be easily accessed by individuals within all department component.
 &lt;dhs:easilyAccessibleByAllComponents&gt;</t>
       </text>
     </comment>
-    <comment ref="CB1" authorId="0" shapeId="0">
+    <comment ref="CC1" authorId="0" shapeId="0">
       <text>
         <t>easilyAccessibleByGeneralPublic:
 The information can be easily accessed by the general public.
 &lt;dhs:easilyAccessibleByGeneralPublic&gt;</t>
       </text>
     </comment>
-    <comment ref="CC1" authorId="0" shapeId="0">
+    <comment ref="CD1" authorId="0" shapeId="0">
+      <text>
+        <t>encryptionAlgorithm:
+Specifies encryption algorithm used to protect data at rest. Can have multiple comma separated values.
+&lt;usg:encryptionAlgorithm&gt;</t>
+      </text>
+    </comment>
+    <comment ref="CE1" authorId="0" shapeId="0">
       <text>
         <t>recordTransmission:
 When the metadata record was transmitted. Must be a date.
 &lt;dhs:recordTransmission&gt;</t>
       </text>
     </comment>
-    <comment ref="CD1" authorId="0" shapeId="0">
+    <comment ref="CF1" authorId="0" shapeId="0">
       <text>
         <t>validityTime:
 When the metadata record is valid. Must be in the form of a xsd Duration like P1Y or P3M
@@ -1128,7 +1142,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>FY22 Data Inventory Collection Instrument - Version 1.4</t>
+          <t>FY22 Data Inventory Collection Instrument - Version 1.5</t>
         </is>
       </c>
     </row>
@@ -1165,7 +1179,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CD99"/>
+  <dimension ref="A1:CF99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1255,6 +1269,8 @@
     <col width="15" customWidth="1" min="80" max="80"/>
     <col width="15" customWidth="1" min="81" max="81"/>
     <col width="15" customWidth="1" min="82" max="82"/>
+    <col width="15" customWidth="1" min="83" max="83"/>
+    <col width="15" customWidth="1" min="84" max="84"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1290,7 +1306,7 @@
       </c>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>metadataClassification</t>
+          <t>dataCatalogRecordAccessLevel</t>
         </is>
       </c>
       <c r="H1" s="3" t="inlineStr">
@@ -1550,120 +1566,130 @@
       </c>
       <c r="BG1" s="9" t="inlineStr">
         <is>
-          <t>characteristics</t>
+          <t>ch-person-level</t>
         </is>
       </c>
       <c r="BH1" s="9" t="inlineStr">
         <is>
-          <t>ch-person-level</t>
+          <t>ch-financial</t>
         </is>
       </c>
       <c r="BI1" s="9" t="inlineStr">
         <is>
-          <t>ch-financial</t>
+          <t>ch-event-records</t>
         </is>
       </c>
       <c r="BJ1" s="9" t="inlineStr">
         <is>
-          <t>ch-event-records</t>
+          <t>ch-faces</t>
         </is>
       </c>
       <c r="BK1" s="9" t="inlineStr">
         <is>
-          <t>ch-faces</t>
+          <t>ch-fingerprints</t>
         </is>
       </c>
       <c r="BL1" s="9" t="inlineStr">
         <is>
-          <t>ch-fingerprints</t>
+          <t>ch-cui</t>
         </is>
       </c>
       <c r="BM1" s="9" t="inlineStr">
         <is>
-          <t>ch-cui</t>
+          <t>ch-phi</t>
         </is>
       </c>
       <c r="BN1" s="9" t="inlineStr">
         <is>
-          <t>ch-phi</t>
+          <t>ch-pii</t>
         </is>
       </c>
       <c r="BO1" s="9" t="inlineStr">
         <is>
-          <t>ch-pii</t>
+          <t>ch-geospatial</t>
         </is>
       </c>
       <c r="BP1" s="9" t="inlineStr">
         <is>
-          <t>ch-geospatial</t>
+          <t>ch-environmental</t>
         </is>
       </c>
       <c r="BQ1" s="9" t="inlineStr">
         <is>
-          <t>ch-environmental</t>
+          <t>ch-fisa</t>
         </is>
       </c>
       <c r="BR1" s="9" t="inlineStr">
         <is>
-          <t>ch-fisa</t>
+          <t>ch-8usc1367</t>
         </is>
       </c>
       <c r="BS1" s="9" t="inlineStr">
         <is>
-          <t>ch-8usc1367</t>
+          <t>ch-propin</t>
         </is>
       </c>
       <c r="BT1" s="9" t="inlineStr">
         <is>
-          <t>ch-propin</t>
+          <t>ch-immigration</t>
         </is>
       </c>
       <c r="BU1" s="9" t="inlineStr">
         <is>
-          <t>ch-immigration</t>
+          <t>ch-criticalInfrastructure</t>
         </is>
       </c>
       <c r="BV1" s="9" t="inlineStr">
         <is>
-          <t>ch-criticalInfrastructure</t>
+          <t>ch-pcii</t>
         </is>
       </c>
       <c r="BW1" s="9" t="inlineStr">
         <is>
+          <t>ch-biometrics</t>
+        </is>
+      </c>
+      <c r="BX1" s="9" t="inlineStr">
+        <is>
           <t>ch-disseminationRestrictions</t>
         </is>
       </c>
-      <c r="BX1" s="10" t="inlineStr">
+      <c r="BY1" s="10" t="inlineStr">
         <is>
           <t>hostingLocation</t>
         </is>
       </c>
-      <c r="BY1" s="15" t="inlineStr">
+      <c r="BZ1" s="15" t="inlineStr">
         <is>
           <t>hostedInCloud</t>
         </is>
       </c>
-      <c r="BZ1" s="15" t="inlineStr">
+      <c r="CA1" s="15" t="inlineStr">
         <is>
           <t>easilyAccessibleByCreatingComponent</t>
         </is>
       </c>
-      <c r="CA1" s="15" t="inlineStr">
+      <c r="CB1" s="15" t="inlineStr">
         <is>
           <t>easilyAccessibleByAllComponents</t>
         </is>
       </c>
-      <c r="CB1" s="15" t="inlineStr">
+      <c r="CC1" s="15" t="inlineStr">
         <is>
           <t>easilyAccessibleByGeneralPublic</t>
         </is>
       </c>
-      <c r="CC1" s="11" t="inlineStr">
+      <c r="CD1" s="11" t="inlineStr">
+        <is>
+          <t>encryptionAlgorithm</t>
+        </is>
+      </c>
+      <c r="CE1" s="12" t="inlineStr">
         <is>
           <t>recordTransmission</t>
         </is>
       </c>
-      <c r="CD1" s="12" t="inlineStr">
+      <c r="CF1" s="12" t="inlineStr">
         <is>
           <t>validityTime</t>
         </is>
@@ -1672,25 +1698,29 @@
     <row r="2">
       <c r="A2" s="16" t="inlineStr">
         <is>
-          <t>test-3</t>
+          <t>test-2</t>
         </is>
       </c>
       <c r="B2" s="17" t="inlineStr">
         <is>
-          <t>test-3</t>
+          <t>test-2</t>
         </is>
       </c>
       <c r="C2" s="17" t="inlineStr">
         <is>
-          <t>test keywords array in DIP record</t>
+          <t>test all fields for DIP record - a full record</t>
         </is>
       </c>
       <c r="D2" s="17" t="inlineStr">
         <is>
-          <t>test,some,keywords</t>
-        </is>
-      </c>
-      <c r="E2" s="17" t="inlineStr"/>
+          <t>test,dataset,Data Inventory Record</t>
+        </is>
+      </c>
+      <c r="E2" s="17" t="inlineStr">
+        <is>
+          <t>MGMT</t>
+        </is>
+      </c>
       <c r="F2" s="17" t="inlineStr">
         <is>
           <t>public</t>
@@ -1703,7 +1733,7 @@
       </c>
       <c r="H2" s="17" t="inlineStr">
         <is>
-          <t>2022-02-11</t>
+          <t>02/24/2022</t>
         </is>
       </c>
       <c r="I2" s="17" t="inlineStr">
@@ -1711,79 +1741,371 @@
           <t>MGMT</t>
         </is>
       </c>
-      <c r="J2" s="18" t="inlineStr"/>
-      <c r="K2" s="19" t="inlineStr"/>
-      <c r="L2" s="19" t="inlineStr"/>
-      <c r="M2" s="19" t="inlineStr"/>
-      <c r="N2" s="19" t="inlineStr"/>
-      <c r="O2" s="19" t="inlineStr"/>
-      <c r="P2" s="19" t="inlineStr"/>
-      <c r="Q2" s="19" t="inlineStr"/>
-      <c r="R2" s="19" t="inlineStr"/>
-      <c r="S2" s="19" t="inlineStr"/>
-      <c r="T2" s="19" t="inlineStr"/>
-      <c r="U2" s="19" t="inlineStr"/>
-      <c r="V2" s="19" t="inlineStr"/>
-      <c r="W2" s="19" t="inlineStr"/>
-      <c r="X2" s="19" t="inlineStr"/>
-      <c r="Y2" s="20" t="inlineStr"/>
-      <c r="Z2" s="21" t="inlineStr"/>
-      <c r="AA2" s="21" t="inlineStr"/>
-      <c r="AB2" s="22" t="inlineStr"/>
-      <c r="AC2" s="22" t="inlineStr"/>
-      <c r="AD2" s="21" t="inlineStr"/>
-      <c r="AE2" s="23" t="inlineStr"/>
-      <c r="AF2" s="24" t="inlineStr"/>
-      <c r="AG2" s="24" t="inlineStr"/>
-      <c r="AH2" s="24" t="inlineStr"/>
-      <c r="AI2" s="24" t="inlineStr"/>
-      <c r="AJ2" s="25" t="inlineStr"/>
-      <c r="AK2" s="26" t="inlineStr"/>
-      <c r="AL2" s="27" t="inlineStr"/>
-      <c r="AM2" s="28" t="inlineStr"/>
-      <c r="AN2" s="29" t="inlineStr"/>
-      <c r="AO2" s="30" t="inlineStr"/>
-      <c r="AP2" s="17" t="inlineStr"/>
-      <c r="AQ2" s="17" t="inlineStr"/>
-      <c r="AR2" s="31" t="inlineStr"/>
-      <c r="AS2" s="18" t="inlineStr"/>
-      <c r="AT2" s="19" t="inlineStr"/>
-      <c r="AU2" s="19" t="inlineStr"/>
-      <c r="AV2" s="19" t="inlineStr"/>
-      <c r="AW2" s="19" t="inlineStr"/>
-      <c r="AX2" s="19" t="inlineStr"/>
-      <c r="AY2" s="19" t="inlineStr"/>
-      <c r="AZ2" s="19" t="inlineStr"/>
-      <c r="BA2" s="19" t="inlineStr"/>
-      <c r="BB2" s="19" t="inlineStr"/>
-      <c r="BC2" s="20" t="inlineStr"/>
-      <c r="BD2" s="21" t="inlineStr"/>
-      <c r="BE2" s="21" t="inlineStr"/>
-      <c r="BF2" s="23" t="inlineStr"/>
-      <c r="BG2" s="24" t="inlineStr"/>
-      <c r="BH2" s="32" t="inlineStr"/>
-      <c r="BI2" s="32" t="inlineStr"/>
-      <c r="BJ2" s="32" t="inlineStr"/>
-      <c r="BK2" s="32" t="inlineStr"/>
-      <c r="BL2" s="32" t="inlineStr"/>
-      <c r="BM2" s="32" t="inlineStr"/>
-      <c r="BN2" s="32" t="inlineStr"/>
-      <c r="BO2" s="32" t="inlineStr"/>
-      <c r="BP2" s="32" t="inlineStr"/>
-      <c r="BQ2" s="32" t="inlineStr"/>
-      <c r="BR2" s="32" t="inlineStr"/>
-      <c r="BS2" s="32" t="inlineStr"/>
-      <c r="BT2" s="32" t="inlineStr"/>
-      <c r="BU2" s="32" t="inlineStr"/>
-      <c r="BV2" s="32" t="inlineStr"/>
-      <c r="BW2" s="32" t="inlineStr"/>
-      <c r="BX2" s="25" t="inlineStr"/>
-      <c r="BY2" s="33" t="inlineStr"/>
-      <c r="BZ2" s="33" t="inlineStr"/>
-      <c r="CA2" s="33" t="inlineStr"/>
-      <c r="CB2" s="33" t="inlineStr"/>
-      <c r="CC2" s="26" t="inlineStr"/>
-      <c r="CD2" s="27" t="inlineStr"/>
+      <c r="J2" s="18" t="inlineStr">
+        <is>
+          <t>MGMT</t>
+        </is>
+      </c>
+      <c r="K2" s="19" t="inlineStr">
+        <is>
+          <t>MGMT</t>
+        </is>
+      </c>
+      <c r="L2" s="19" t="inlineStr">
+        <is>
+          <t>Gerry McDonald</t>
+        </is>
+      </c>
+      <c r="M2" s="19" t="inlineStr">
+        <is>
+          <t>Mike Smythe</t>
+        </is>
+      </c>
+      <c r="N2" s="19" t="inlineStr">
+        <is>
+          <t>Abe Lincon</t>
+        </is>
+      </c>
+      <c r="O2" s="19" t="inlineStr">
+        <is>
+          <t>010-999992220</t>
+        </is>
+      </c>
+      <c r="P2" s="19" t="inlineStr">
+        <is>
+          <t>FSA-00100-MAJ-00100</t>
+        </is>
+      </c>
+      <c r="Q2" s="19" t="inlineStr">
+        <is>
+          <t>https://example.org/some/valuable/resource.html</t>
+        </is>
+      </c>
+      <c r="R2" s="19" t="inlineStr">
+        <is>
+          <t>https://example.org/some/valuable/resource.html</t>
+        </is>
+      </c>
+      <c r="S2" s="19" t="inlineStr">
+        <is>
+          <t>Anna Cole</t>
+        </is>
+      </c>
+      <c r="T2" s="19" t="inlineStr">
+        <is>
+          <t>Some Article of legal authority,or Executive Orders</t>
+        </is>
+      </c>
+      <c r="U2" s="19" t="inlineStr">
+        <is>
+          <t>Some Article of legal authority,or Executive Orders</t>
+        </is>
+      </c>
+      <c r="V2" s="19" t="inlineStr">
+        <is>
+          <t>Some Article of legal authority,or Executive Orders</t>
+        </is>
+      </c>
+      <c r="W2" s="19" t="inlineStr">
+        <is>
+          <t>Pointer to a URL describing records management schedule,A description of the records management schedule</t>
+        </is>
+      </c>
+      <c r="X2" s="19" t="inlineStr">
+        <is>
+          <t>https://example.org/a_SORN_entry.html</t>
+        </is>
+      </c>
+      <c r="Y2" s="20" t="inlineStr">
+        <is>
+          <t>http://niem.github.io/reference/iepd/</t>
+        </is>
+      </c>
+      <c r="Z2" s="21" t="inlineStr">
+        <is>
+          <t>https://www.nist.gov/publications/security-requirements-cryptographic-modules-includes-change-notices-1232002</t>
+        </is>
+      </c>
+      <c r="AA2" s="21" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB2" s="22" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="AC2" s="22" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="AD2" s="21" t="inlineStr">
+        <is>
+          <t>https://www.iso.org/ics/01.140.10/x/</t>
+        </is>
+      </c>
+      <c r="AE2" s="23" t="inlineStr">
+        <is>
+          <t>datasetA,datasetB,...</t>
+        </is>
+      </c>
+      <c r="AF2" s="24" t="inlineStr">
+        <is>
+          <t>datasetA,datasetB,...</t>
+        </is>
+      </c>
+      <c r="AG2" s="24" t="inlineStr">
+        <is>
+          <t>https://example.org/some/valuable/resource.html</t>
+        </is>
+      </c>
+      <c r="AH2" s="24" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="AI2" s="24" t="inlineStr">
+        <is>
+          <t>Mobius</t>
+        </is>
+      </c>
+      <c r="AJ2" s="25" t="inlineStr">
+        <is>
+          <t>P1Y</t>
+        </is>
+      </c>
+      <c r="AK2" s="26" t="inlineStr">
+        <is>
+          <t>Downtown Washington, DC</t>
+        </is>
+      </c>
+      <c r="AL2" s="27" t="inlineStr">
+        <is>
+          <t>5x5 meters</t>
+        </is>
+      </c>
+      <c r="AM2" s="28" t="inlineStr">
+        <is>
+          <t>December, 2021</t>
+        </is>
+      </c>
+      <c r="AN2" s="29" t="inlineStr">
+        <is>
+          <t>P1M</t>
+        </is>
+      </c>
+      <c r="AO2" s="30" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="AP2" s="17" t="n">
+        <v>73</v>
+      </c>
+      <c r="AQ2" s="17" t="inlineStr">
+        <is>
+          <t>This dataset has some gaps in crtical areas. Efforts are underway to remediate.</t>
+        </is>
+      </c>
+      <c r="AR2" s="31" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="AS2" s="18" t="inlineStr">
+        <is>
+          <t>CSV</t>
+        </is>
+      </c>
+      <c r="AT2" s="19" t="inlineStr">
+        <is>
+          <t>https://ea.dhs.gov/mobius</t>
+        </is>
+      </c>
+      <c r="AU2" s="19" t="inlineStr">
+        <is>
+          <t>https://ea.dhs.gov/mobius</t>
+        </is>
+      </c>
+      <c r="AV2" s="19" t="inlineStr">
+        <is>
+          <t>02/24/2022</t>
+        </is>
+      </c>
+      <c r="AW2" s="19" t="inlineStr">
+        <is>
+          <t>ECS,GeoManagement, Inc.</t>
+        </is>
+      </c>
+      <c r="AX2" s="19" t="inlineStr">
+        <is>
+          <t>MIT</t>
+        </is>
+      </c>
+      <c r="AY2" s="19" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="AZ2" s="19" t="inlineStr">
+        <is>
+          <t>data management,data governance,data inventory</t>
+        </is>
+      </c>
+      <c r="BA2" s="19" t="inlineStr">
+        <is>
+          <t>IDII</t>
+        </is>
+      </c>
+      <c r="BB2" s="19" t="inlineStr">
+        <is>
+          <t>application/node</t>
+        </is>
+      </c>
+      <c r="BC2" s="20" t="n">
+        <v>38</v>
+      </c>
+      <c r="BD2" s="21" t="n">
+        <v>80</v>
+      </c>
+      <c r="BE2" s="21" t="n">
+        <v>78</v>
+      </c>
+      <c r="BF2" s="23" t="inlineStr">
+        <is>
+          <t>CUI</t>
+        </is>
+      </c>
+      <c r="BG2" s="32" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="BH2" s="32" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="BI2" s="32" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="BJ2" s="32" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="BK2" s="32" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="BL2" s="32" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="BM2" s="32" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="BN2" s="32" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="BO2" s="32" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="BP2" s="32" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="BQ2" s="32" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="BR2" s="32" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="BS2" s="32" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="BT2" s="32" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="BU2" s="32" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="BV2" s="32" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="BW2" s="32" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="BX2" s="32" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="BY2" s="25" t="inlineStr">
+        <is>
+          <t>CIRRUS</t>
+        </is>
+      </c>
+      <c r="BZ2" s="33" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="CA2" s="33" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="CB2" s="33" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="CC2" s="33" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="CD2" s="26" t="inlineStr">
+        <is>
+          <t>3DES</t>
+        </is>
+      </c>
+      <c r="CE2" s="27" t="inlineStr">
+        <is>
+          <t>02/24/2022</t>
+        </is>
+      </c>
+      <c r="CF2" s="27" t="inlineStr">
+        <is>
+          <t>P1Y</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="16" t="inlineStr"/>
@@ -1844,7 +2166,7 @@
       <c r="BD3" s="21" t="inlineStr"/>
       <c r="BE3" s="21" t="inlineStr"/>
       <c r="BF3" s="23" t="inlineStr"/>
-      <c r="BG3" s="24" t="inlineStr"/>
+      <c r="BG3" s="32" t="inlineStr"/>
       <c r="BH3" s="32" t="inlineStr"/>
       <c r="BI3" s="32" t="inlineStr"/>
       <c r="BJ3" s="32" t="inlineStr"/>
@@ -1861,13 +2183,15 @@
       <c r="BU3" s="32" t="inlineStr"/>
       <c r="BV3" s="32" t="inlineStr"/>
       <c r="BW3" s="32" t="inlineStr"/>
-      <c r="BX3" s="25" t="inlineStr"/>
-      <c r="BY3" s="33" t="inlineStr"/>
+      <c r="BX3" s="32" t="inlineStr"/>
+      <c r="BY3" s="25" t="inlineStr"/>
       <c r="BZ3" s="33" t="inlineStr"/>
       <c r="CA3" s="33" t="inlineStr"/>
       <c r="CB3" s="33" t="inlineStr"/>
-      <c r="CC3" s="26" t="inlineStr"/>
-      <c r="CD3" s="27" t="inlineStr"/>
+      <c r="CC3" s="33" t="inlineStr"/>
+      <c r="CD3" s="26" t="inlineStr"/>
+      <c r="CE3" s="27" t="inlineStr"/>
+      <c r="CF3" s="27" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="16" t="inlineStr"/>
@@ -1928,7 +2252,7 @@
       <c r="BD4" s="21" t="inlineStr"/>
       <c r="BE4" s="21" t="inlineStr"/>
       <c r="BF4" s="23" t="inlineStr"/>
-      <c r="BG4" s="24" t="inlineStr"/>
+      <c r="BG4" s="32" t="inlineStr"/>
       <c r="BH4" s="32" t="inlineStr"/>
       <c r="BI4" s="32" t="inlineStr"/>
       <c r="BJ4" s="32" t="inlineStr"/>
@@ -1945,13 +2269,15 @@
       <c r="BU4" s="32" t="inlineStr"/>
       <c r="BV4" s="32" t="inlineStr"/>
       <c r="BW4" s="32" t="inlineStr"/>
-      <c r="BX4" s="25" t="inlineStr"/>
-      <c r="BY4" s="33" t="inlineStr"/>
+      <c r="BX4" s="32" t="inlineStr"/>
+      <c r="BY4" s="25" t="inlineStr"/>
       <c r="BZ4" s="33" t="inlineStr"/>
       <c r="CA4" s="33" t="inlineStr"/>
       <c r="CB4" s="33" t="inlineStr"/>
-      <c r="CC4" s="26" t="inlineStr"/>
-      <c r="CD4" s="27" t="inlineStr"/>
+      <c r="CC4" s="33" t="inlineStr"/>
+      <c r="CD4" s="26" t="inlineStr"/>
+      <c r="CE4" s="27" t="inlineStr"/>
+      <c r="CF4" s="27" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="16" t="inlineStr"/>
@@ -2012,7 +2338,7 @@
       <c r="BD5" s="21" t="inlineStr"/>
       <c r="BE5" s="21" t="inlineStr"/>
       <c r="BF5" s="23" t="inlineStr"/>
-      <c r="BG5" s="24" t="inlineStr"/>
+      <c r="BG5" s="32" t="inlineStr"/>
       <c r="BH5" s="32" t="inlineStr"/>
       <c r="BI5" s="32" t="inlineStr"/>
       <c r="BJ5" s="32" t="inlineStr"/>
@@ -2029,13 +2355,15 @@
       <c r="BU5" s="32" t="inlineStr"/>
       <c r="BV5" s="32" t="inlineStr"/>
       <c r="BW5" s="32" t="inlineStr"/>
-      <c r="BX5" s="25" t="inlineStr"/>
-      <c r="BY5" s="33" t="inlineStr"/>
+      <c r="BX5" s="32" t="inlineStr"/>
+      <c r="BY5" s="25" t="inlineStr"/>
       <c r="BZ5" s="33" t="inlineStr"/>
       <c r="CA5" s="33" t="inlineStr"/>
       <c r="CB5" s="33" t="inlineStr"/>
-      <c r="CC5" s="26" t="inlineStr"/>
-      <c r="CD5" s="27" t="inlineStr"/>
+      <c r="CC5" s="33" t="inlineStr"/>
+      <c r="CD5" s="26" t="inlineStr"/>
+      <c r="CE5" s="27" t="inlineStr"/>
+      <c r="CF5" s="27" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="16" t="inlineStr"/>
@@ -2096,7 +2424,7 @@
       <c r="BD6" s="21" t="inlineStr"/>
       <c r="BE6" s="21" t="inlineStr"/>
       <c r="BF6" s="23" t="inlineStr"/>
-      <c r="BG6" s="24" t="inlineStr"/>
+      <c r="BG6" s="32" t="inlineStr"/>
       <c r="BH6" s="32" t="inlineStr"/>
       <c r="BI6" s="32" t="inlineStr"/>
       <c r="BJ6" s="32" t="inlineStr"/>
@@ -2113,13 +2441,15 @@
       <c r="BU6" s="32" t="inlineStr"/>
       <c r="BV6" s="32" t="inlineStr"/>
       <c r="BW6" s="32" t="inlineStr"/>
-      <c r="BX6" s="25" t="inlineStr"/>
-      <c r="BY6" s="33" t="inlineStr"/>
+      <c r="BX6" s="32" t="inlineStr"/>
+      <c r="BY6" s="25" t="inlineStr"/>
       <c r="BZ6" s="33" t="inlineStr"/>
       <c r="CA6" s="33" t="inlineStr"/>
       <c r="CB6" s="33" t="inlineStr"/>
-      <c r="CC6" s="26" t="inlineStr"/>
-      <c r="CD6" s="27" t="inlineStr"/>
+      <c r="CC6" s="33" t="inlineStr"/>
+      <c r="CD6" s="26" t="inlineStr"/>
+      <c r="CE6" s="27" t="inlineStr"/>
+      <c r="CF6" s="27" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="16" t="inlineStr"/>
@@ -2180,7 +2510,7 @@
       <c r="BD7" s="21" t="inlineStr"/>
       <c r="BE7" s="21" t="inlineStr"/>
       <c r="BF7" s="23" t="inlineStr"/>
-      <c r="BG7" s="24" t="inlineStr"/>
+      <c r="BG7" s="32" t="inlineStr"/>
       <c r="BH7" s="32" t="inlineStr"/>
       <c r="BI7" s="32" t="inlineStr"/>
       <c r="BJ7" s="32" t="inlineStr"/>
@@ -2197,13 +2527,15 @@
       <c r="BU7" s="32" t="inlineStr"/>
       <c r="BV7" s="32" t="inlineStr"/>
       <c r="BW7" s="32" t="inlineStr"/>
-      <c r="BX7" s="25" t="inlineStr"/>
-      <c r="BY7" s="33" t="inlineStr"/>
+      <c r="BX7" s="32" t="inlineStr"/>
+      <c r="BY7" s="25" t="inlineStr"/>
       <c r="BZ7" s="33" t="inlineStr"/>
       <c r="CA7" s="33" t="inlineStr"/>
       <c r="CB7" s="33" t="inlineStr"/>
-      <c r="CC7" s="26" t="inlineStr"/>
-      <c r="CD7" s="27" t="inlineStr"/>
+      <c r="CC7" s="33" t="inlineStr"/>
+      <c r="CD7" s="26" t="inlineStr"/>
+      <c r="CE7" s="27" t="inlineStr"/>
+      <c r="CF7" s="27" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="16" t="inlineStr"/>
@@ -2264,7 +2596,7 @@
       <c r="BD8" s="21" t="inlineStr"/>
       <c r="BE8" s="21" t="inlineStr"/>
       <c r="BF8" s="23" t="inlineStr"/>
-      <c r="BG8" s="24" t="inlineStr"/>
+      <c r="BG8" s="32" t="inlineStr"/>
       <c r="BH8" s="32" t="inlineStr"/>
       <c r="BI8" s="32" t="inlineStr"/>
       <c r="BJ8" s="32" t="inlineStr"/>
@@ -2281,13 +2613,15 @@
       <c r="BU8" s="32" t="inlineStr"/>
       <c r="BV8" s="32" t="inlineStr"/>
       <c r="BW8" s="32" t="inlineStr"/>
-      <c r="BX8" s="25" t="inlineStr"/>
-      <c r="BY8" s="33" t="inlineStr"/>
+      <c r="BX8" s="32" t="inlineStr"/>
+      <c r="BY8" s="25" t="inlineStr"/>
       <c r="BZ8" s="33" t="inlineStr"/>
       <c r="CA8" s="33" t="inlineStr"/>
       <c r="CB8" s="33" t="inlineStr"/>
-      <c r="CC8" s="26" t="inlineStr"/>
-      <c r="CD8" s="27" t="inlineStr"/>
+      <c r="CC8" s="33" t="inlineStr"/>
+      <c r="CD8" s="26" t="inlineStr"/>
+      <c r="CE8" s="27" t="inlineStr"/>
+      <c r="CF8" s="27" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="16" t="inlineStr"/>
@@ -2348,7 +2682,7 @@
       <c r="BD9" s="21" t="inlineStr"/>
       <c r="BE9" s="21" t="inlineStr"/>
       <c r="BF9" s="23" t="inlineStr"/>
-      <c r="BG9" s="24" t="inlineStr"/>
+      <c r="BG9" s="32" t="inlineStr"/>
       <c r="BH9" s="32" t="inlineStr"/>
       <c r="BI9" s="32" t="inlineStr"/>
       <c r="BJ9" s="32" t="inlineStr"/>
@@ -2365,13 +2699,15 @@
       <c r="BU9" s="32" t="inlineStr"/>
       <c r="BV9" s="32" t="inlineStr"/>
       <c r="BW9" s="32" t="inlineStr"/>
-      <c r="BX9" s="25" t="inlineStr"/>
-      <c r="BY9" s="33" t="inlineStr"/>
+      <c r="BX9" s="32" t="inlineStr"/>
+      <c r="BY9" s="25" t="inlineStr"/>
       <c r="BZ9" s="33" t="inlineStr"/>
       <c r="CA9" s="33" t="inlineStr"/>
       <c r="CB9" s="33" t="inlineStr"/>
-      <c r="CC9" s="26" t="inlineStr"/>
-      <c r="CD9" s="27" t="inlineStr"/>
+      <c r="CC9" s="33" t="inlineStr"/>
+      <c r="CD9" s="26" t="inlineStr"/>
+      <c r="CE9" s="27" t="inlineStr"/>
+      <c r="CF9" s="27" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="16" t="inlineStr"/>
@@ -2432,7 +2768,7 @@
       <c r="BD10" s="21" t="inlineStr"/>
       <c r="BE10" s="21" t="inlineStr"/>
       <c r="BF10" s="23" t="inlineStr"/>
-      <c r="BG10" s="24" t="inlineStr"/>
+      <c r="BG10" s="32" t="inlineStr"/>
       <c r="BH10" s="32" t="inlineStr"/>
       <c r="BI10" s="32" t="inlineStr"/>
       <c r="BJ10" s="32" t="inlineStr"/>
@@ -2449,13 +2785,15 @@
       <c r="BU10" s="32" t="inlineStr"/>
       <c r="BV10" s="32" t="inlineStr"/>
       <c r="BW10" s="32" t="inlineStr"/>
-      <c r="BX10" s="25" t="inlineStr"/>
-      <c r="BY10" s="33" t="inlineStr"/>
+      <c r="BX10" s="32" t="inlineStr"/>
+      <c r="BY10" s="25" t="inlineStr"/>
       <c r="BZ10" s="33" t="inlineStr"/>
       <c r="CA10" s="33" t="inlineStr"/>
       <c r="CB10" s="33" t="inlineStr"/>
-      <c r="CC10" s="26" t="inlineStr"/>
-      <c r="CD10" s="27" t="inlineStr"/>
+      <c r="CC10" s="33" t="inlineStr"/>
+      <c r="CD10" s="26" t="inlineStr"/>
+      <c r="CE10" s="27" t="inlineStr"/>
+      <c r="CF10" s="27" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="16" t="inlineStr"/>
@@ -2516,7 +2854,7 @@
       <c r="BD11" s="21" t="inlineStr"/>
       <c r="BE11" s="21" t="inlineStr"/>
       <c r="BF11" s="23" t="inlineStr"/>
-      <c r="BG11" s="24" t="inlineStr"/>
+      <c r="BG11" s="32" t="inlineStr"/>
       <c r="BH11" s="32" t="inlineStr"/>
       <c r="BI11" s="32" t="inlineStr"/>
       <c r="BJ11" s="32" t="inlineStr"/>
@@ -2533,13 +2871,15 @@
       <c r="BU11" s="32" t="inlineStr"/>
       <c r="BV11" s="32" t="inlineStr"/>
       <c r="BW11" s="32" t="inlineStr"/>
-      <c r="BX11" s="25" t="inlineStr"/>
-      <c r="BY11" s="33" t="inlineStr"/>
+      <c r="BX11" s="32" t="inlineStr"/>
+      <c r="BY11" s="25" t="inlineStr"/>
       <c r="BZ11" s="33" t="inlineStr"/>
       <c r="CA11" s="33" t="inlineStr"/>
       <c r="CB11" s="33" t="inlineStr"/>
-      <c r="CC11" s="26" t="inlineStr"/>
-      <c r="CD11" s="27" t="inlineStr"/>
+      <c r="CC11" s="33" t="inlineStr"/>
+      <c r="CD11" s="26" t="inlineStr"/>
+      <c r="CE11" s="27" t="inlineStr"/>
+      <c r="CF11" s="27" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="16" t="inlineStr"/>
@@ -2600,7 +2940,7 @@
       <c r="BD12" s="21" t="inlineStr"/>
       <c r="BE12" s="21" t="inlineStr"/>
       <c r="BF12" s="23" t="inlineStr"/>
-      <c r="BG12" s="24" t="inlineStr"/>
+      <c r="BG12" s="32" t="inlineStr"/>
       <c r="BH12" s="32" t="inlineStr"/>
       <c r="BI12" s="32" t="inlineStr"/>
       <c r="BJ12" s="32" t="inlineStr"/>
@@ -2617,13 +2957,15 @@
       <c r="BU12" s="32" t="inlineStr"/>
       <c r="BV12" s="32" t="inlineStr"/>
       <c r="BW12" s="32" t="inlineStr"/>
-      <c r="BX12" s="25" t="inlineStr"/>
-      <c r="BY12" s="33" t="inlineStr"/>
+      <c r="BX12" s="32" t="inlineStr"/>
+      <c r="BY12" s="25" t="inlineStr"/>
       <c r="BZ12" s="33" t="inlineStr"/>
       <c r="CA12" s="33" t="inlineStr"/>
       <c r="CB12" s="33" t="inlineStr"/>
-      <c r="CC12" s="26" t="inlineStr"/>
-      <c r="CD12" s="27" t="inlineStr"/>
+      <c r="CC12" s="33" t="inlineStr"/>
+      <c r="CD12" s="26" t="inlineStr"/>
+      <c r="CE12" s="27" t="inlineStr"/>
+      <c r="CF12" s="27" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="16" t="inlineStr"/>
@@ -2684,7 +3026,7 @@
       <c r="BD13" s="21" t="inlineStr"/>
       <c r="BE13" s="21" t="inlineStr"/>
       <c r="BF13" s="23" t="inlineStr"/>
-      <c r="BG13" s="24" t="inlineStr"/>
+      <c r="BG13" s="32" t="inlineStr"/>
       <c r="BH13" s="32" t="inlineStr"/>
       <c r="BI13" s="32" t="inlineStr"/>
       <c r="BJ13" s="32" t="inlineStr"/>
@@ -2701,13 +3043,15 @@
       <c r="BU13" s="32" t="inlineStr"/>
       <c r="BV13" s="32" t="inlineStr"/>
       <c r="BW13" s="32" t="inlineStr"/>
-      <c r="BX13" s="25" t="inlineStr"/>
-      <c r="BY13" s="33" t="inlineStr"/>
+      <c r="BX13" s="32" t="inlineStr"/>
+      <c r="BY13" s="25" t="inlineStr"/>
       <c r="BZ13" s="33" t="inlineStr"/>
       <c r="CA13" s="33" t="inlineStr"/>
       <c r="CB13" s="33" t="inlineStr"/>
-      <c r="CC13" s="26" t="inlineStr"/>
-      <c r="CD13" s="27" t="inlineStr"/>
+      <c r="CC13" s="33" t="inlineStr"/>
+      <c r="CD13" s="26" t="inlineStr"/>
+      <c r="CE13" s="27" t="inlineStr"/>
+      <c r="CF13" s="27" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="16" t="inlineStr"/>
@@ -2768,7 +3112,7 @@
       <c r="BD14" s="21" t="inlineStr"/>
       <c r="BE14" s="21" t="inlineStr"/>
       <c r="BF14" s="23" t="inlineStr"/>
-      <c r="BG14" s="24" t="inlineStr"/>
+      <c r="BG14" s="32" t="inlineStr"/>
       <c r="BH14" s="32" t="inlineStr"/>
       <c r="BI14" s="32" t="inlineStr"/>
       <c r="BJ14" s="32" t="inlineStr"/>
@@ -2785,13 +3129,15 @@
       <c r="BU14" s="32" t="inlineStr"/>
       <c r="BV14" s="32" t="inlineStr"/>
       <c r="BW14" s="32" t="inlineStr"/>
-      <c r="BX14" s="25" t="inlineStr"/>
-      <c r="BY14" s="33" t="inlineStr"/>
+      <c r="BX14" s="32" t="inlineStr"/>
+      <c r="BY14" s="25" t="inlineStr"/>
       <c r="BZ14" s="33" t="inlineStr"/>
       <c r="CA14" s="33" t="inlineStr"/>
       <c r="CB14" s="33" t="inlineStr"/>
-      <c r="CC14" s="26" t="inlineStr"/>
-      <c r="CD14" s="27" t="inlineStr"/>
+      <c r="CC14" s="33" t="inlineStr"/>
+      <c r="CD14" s="26" t="inlineStr"/>
+      <c r="CE14" s="27" t="inlineStr"/>
+      <c r="CF14" s="27" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="16" t="inlineStr"/>
@@ -2852,7 +3198,7 @@
       <c r="BD15" s="21" t="inlineStr"/>
       <c r="BE15" s="21" t="inlineStr"/>
       <c r="BF15" s="23" t="inlineStr"/>
-      <c r="BG15" s="24" t="inlineStr"/>
+      <c r="BG15" s="32" t="inlineStr"/>
       <c r="BH15" s="32" t="inlineStr"/>
       <c r="BI15" s="32" t="inlineStr"/>
       <c r="BJ15" s="32" t="inlineStr"/>
@@ -2869,13 +3215,15 @@
       <c r="BU15" s="32" t="inlineStr"/>
       <c r="BV15" s="32" t="inlineStr"/>
       <c r="BW15" s="32" t="inlineStr"/>
-      <c r="BX15" s="25" t="inlineStr"/>
-      <c r="BY15" s="33" t="inlineStr"/>
+      <c r="BX15" s="32" t="inlineStr"/>
+      <c r="BY15" s="25" t="inlineStr"/>
       <c r="BZ15" s="33" t="inlineStr"/>
       <c r="CA15" s="33" t="inlineStr"/>
       <c r="CB15" s="33" t="inlineStr"/>
-      <c r="CC15" s="26" t="inlineStr"/>
-      <c r="CD15" s="27" t="inlineStr"/>
+      <c r="CC15" s="33" t="inlineStr"/>
+      <c r="CD15" s="26" t="inlineStr"/>
+      <c r="CE15" s="27" t="inlineStr"/>
+      <c r="CF15" s="27" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="16" t="inlineStr"/>
@@ -2936,7 +3284,7 @@
       <c r="BD16" s="21" t="inlineStr"/>
       <c r="BE16" s="21" t="inlineStr"/>
       <c r="BF16" s="23" t="inlineStr"/>
-      <c r="BG16" s="24" t="inlineStr"/>
+      <c r="BG16" s="32" t="inlineStr"/>
       <c r="BH16" s="32" t="inlineStr"/>
       <c r="BI16" s="32" t="inlineStr"/>
       <c r="BJ16" s="32" t="inlineStr"/>
@@ -2953,13 +3301,15 @@
       <c r="BU16" s="32" t="inlineStr"/>
       <c r="BV16" s="32" t="inlineStr"/>
       <c r="BW16" s="32" t="inlineStr"/>
-      <c r="BX16" s="25" t="inlineStr"/>
-      <c r="BY16" s="33" t="inlineStr"/>
+      <c r="BX16" s="32" t="inlineStr"/>
+      <c r="BY16" s="25" t="inlineStr"/>
       <c r="BZ16" s="33" t="inlineStr"/>
       <c r="CA16" s="33" t="inlineStr"/>
       <c r="CB16" s="33" t="inlineStr"/>
-      <c r="CC16" s="26" t="inlineStr"/>
-      <c r="CD16" s="27" t="inlineStr"/>
+      <c r="CC16" s="33" t="inlineStr"/>
+      <c r="CD16" s="26" t="inlineStr"/>
+      <c r="CE16" s="27" t="inlineStr"/>
+      <c r="CF16" s="27" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="16" t="inlineStr"/>
@@ -3020,7 +3370,7 @@
       <c r="BD17" s="21" t="inlineStr"/>
       <c r="BE17" s="21" t="inlineStr"/>
       <c r="BF17" s="23" t="inlineStr"/>
-      <c r="BG17" s="24" t="inlineStr"/>
+      <c r="BG17" s="32" t="inlineStr"/>
       <c r="BH17" s="32" t="inlineStr"/>
       <c r="BI17" s="32" t="inlineStr"/>
       <c r="BJ17" s="32" t="inlineStr"/>
@@ -3037,13 +3387,15 @@
       <c r="BU17" s="32" t="inlineStr"/>
       <c r="BV17" s="32" t="inlineStr"/>
       <c r="BW17" s="32" t="inlineStr"/>
-      <c r="BX17" s="25" t="inlineStr"/>
-      <c r="BY17" s="33" t="inlineStr"/>
+      <c r="BX17" s="32" t="inlineStr"/>
+      <c r="BY17" s="25" t="inlineStr"/>
       <c r="BZ17" s="33" t="inlineStr"/>
       <c r="CA17" s="33" t="inlineStr"/>
       <c r="CB17" s="33" t="inlineStr"/>
-      <c r="CC17" s="26" t="inlineStr"/>
-      <c r="CD17" s="27" t="inlineStr"/>
+      <c r="CC17" s="33" t="inlineStr"/>
+      <c r="CD17" s="26" t="inlineStr"/>
+      <c r="CE17" s="27" t="inlineStr"/>
+      <c r="CF17" s="27" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="16" t="inlineStr"/>
@@ -3104,7 +3456,7 @@
       <c r="BD18" s="21" t="inlineStr"/>
       <c r="BE18" s="21" t="inlineStr"/>
       <c r="BF18" s="23" t="inlineStr"/>
-      <c r="BG18" s="24" t="inlineStr"/>
+      <c r="BG18" s="32" t="inlineStr"/>
       <c r="BH18" s="32" t="inlineStr"/>
       <c r="BI18" s="32" t="inlineStr"/>
       <c r="BJ18" s="32" t="inlineStr"/>
@@ -3121,13 +3473,15 @@
       <c r="BU18" s="32" t="inlineStr"/>
       <c r="BV18" s="32" t="inlineStr"/>
       <c r="BW18" s="32" t="inlineStr"/>
-      <c r="BX18" s="25" t="inlineStr"/>
-      <c r="BY18" s="33" t="inlineStr"/>
+      <c r="BX18" s="32" t="inlineStr"/>
+      <c r="BY18" s="25" t="inlineStr"/>
       <c r="BZ18" s="33" t="inlineStr"/>
       <c r="CA18" s="33" t="inlineStr"/>
       <c r="CB18" s="33" t="inlineStr"/>
-      <c r="CC18" s="26" t="inlineStr"/>
-      <c r="CD18" s="27" t="inlineStr"/>
+      <c r="CC18" s="33" t="inlineStr"/>
+      <c r="CD18" s="26" t="inlineStr"/>
+      <c r="CE18" s="27" t="inlineStr"/>
+      <c r="CF18" s="27" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="16" t="inlineStr"/>
@@ -3188,7 +3542,7 @@
       <c r="BD19" s="21" t="inlineStr"/>
       <c r="BE19" s="21" t="inlineStr"/>
       <c r="BF19" s="23" t="inlineStr"/>
-      <c r="BG19" s="24" t="inlineStr"/>
+      <c r="BG19" s="32" t="inlineStr"/>
       <c r="BH19" s="32" t="inlineStr"/>
       <c r="BI19" s="32" t="inlineStr"/>
       <c r="BJ19" s="32" t="inlineStr"/>
@@ -3205,13 +3559,15 @@
       <c r="BU19" s="32" t="inlineStr"/>
       <c r="BV19" s="32" t="inlineStr"/>
       <c r="BW19" s="32" t="inlineStr"/>
-      <c r="BX19" s="25" t="inlineStr"/>
-      <c r="BY19" s="33" t="inlineStr"/>
+      <c r="BX19" s="32" t="inlineStr"/>
+      <c r="BY19" s="25" t="inlineStr"/>
       <c r="BZ19" s="33" t="inlineStr"/>
       <c r="CA19" s="33" t="inlineStr"/>
       <c r="CB19" s="33" t="inlineStr"/>
-      <c r="CC19" s="26" t="inlineStr"/>
-      <c r="CD19" s="27" t="inlineStr"/>
+      <c r="CC19" s="33" t="inlineStr"/>
+      <c r="CD19" s="26" t="inlineStr"/>
+      <c r="CE19" s="27" t="inlineStr"/>
+      <c r="CF19" s="27" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="16" t="inlineStr"/>
@@ -3272,7 +3628,7 @@
       <c r="BD20" s="21" t="inlineStr"/>
       <c r="BE20" s="21" t="inlineStr"/>
       <c r="BF20" s="23" t="inlineStr"/>
-      <c r="BG20" s="24" t="inlineStr"/>
+      <c r="BG20" s="32" t="inlineStr"/>
       <c r="BH20" s="32" t="inlineStr"/>
       <c r="BI20" s="32" t="inlineStr"/>
       <c r="BJ20" s="32" t="inlineStr"/>
@@ -3289,13 +3645,15 @@
       <c r="BU20" s="32" t="inlineStr"/>
       <c r="BV20" s="32" t="inlineStr"/>
       <c r="BW20" s="32" t="inlineStr"/>
-      <c r="BX20" s="25" t="inlineStr"/>
-      <c r="BY20" s="33" t="inlineStr"/>
+      <c r="BX20" s="32" t="inlineStr"/>
+      <c r="BY20" s="25" t="inlineStr"/>
       <c r="BZ20" s="33" t="inlineStr"/>
       <c r="CA20" s="33" t="inlineStr"/>
       <c r="CB20" s="33" t="inlineStr"/>
-      <c r="CC20" s="26" t="inlineStr"/>
-      <c r="CD20" s="27" t="inlineStr"/>
+      <c r="CC20" s="33" t="inlineStr"/>
+      <c r="CD20" s="26" t="inlineStr"/>
+      <c r="CE20" s="27" t="inlineStr"/>
+      <c r="CF20" s="27" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="16" t="inlineStr"/>
@@ -3356,7 +3714,7 @@
       <c r="BD21" s="21" t="inlineStr"/>
       <c r="BE21" s="21" t="inlineStr"/>
       <c r="BF21" s="23" t="inlineStr"/>
-      <c r="BG21" s="24" t="inlineStr"/>
+      <c r="BG21" s="32" t="inlineStr"/>
       <c r="BH21" s="32" t="inlineStr"/>
       <c r="BI21" s="32" t="inlineStr"/>
       <c r="BJ21" s="32" t="inlineStr"/>
@@ -3373,13 +3731,15 @@
       <c r="BU21" s="32" t="inlineStr"/>
       <c r="BV21" s="32" t="inlineStr"/>
       <c r="BW21" s="32" t="inlineStr"/>
-      <c r="BX21" s="25" t="inlineStr"/>
-      <c r="BY21" s="33" t="inlineStr"/>
+      <c r="BX21" s="32" t="inlineStr"/>
+      <c r="BY21" s="25" t="inlineStr"/>
       <c r="BZ21" s="33" t="inlineStr"/>
       <c r="CA21" s="33" t="inlineStr"/>
       <c r="CB21" s="33" t="inlineStr"/>
-      <c r="CC21" s="26" t="inlineStr"/>
-      <c r="CD21" s="27" t="inlineStr"/>
+      <c r="CC21" s="33" t="inlineStr"/>
+      <c r="CD21" s="26" t="inlineStr"/>
+      <c r="CE21" s="27" t="inlineStr"/>
+      <c r="CF21" s="27" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="16" t="inlineStr"/>
@@ -3440,7 +3800,7 @@
       <c r="BD22" s="21" t="inlineStr"/>
       <c r="BE22" s="21" t="inlineStr"/>
       <c r="BF22" s="23" t="inlineStr"/>
-      <c r="BG22" s="24" t="inlineStr"/>
+      <c r="BG22" s="32" t="inlineStr"/>
       <c r="BH22" s="32" t="inlineStr"/>
       <c r="BI22" s="32" t="inlineStr"/>
       <c r="BJ22" s="32" t="inlineStr"/>
@@ -3457,13 +3817,15 @@
       <c r="BU22" s="32" t="inlineStr"/>
       <c r="BV22" s="32" t="inlineStr"/>
       <c r="BW22" s="32" t="inlineStr"/>
-      <c r="BX22" s="25" t="inlineStr"/>
-      <c r="BY22" s="33" t="inlineStr"/>
+      <c r="BX22" s="32" t="inlineStr"/>
+      <c r="BY22" s="25" t="inlineStr"/>
       <c r="BZ22" s="33" t="inlineStr"/>
       <c r="CA22" s="33" t="inlineStr"/>
       <c r="CB22" s="33" t="inlineStr"/>
-      <c r="CC22" s="26" t="inlineStr"/>
-      <c r="CD22" s="27" t="inlineStr"/>
+      <c r="CC22" s="33" t="inlineStr"/>
+      <c r="CD22" s="26" t="inlineStr"/>
+      <c r="CE22" s="27" t="inlineStr"/>
+      <c r="CF22" s="27" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="16" t="inlineStr"/>
@@ -3524,7 +3886,7 @@
       <c r="BD23" s="21" t="inlineStr"/>
       <c r="BE23" s="21" t="inlineStr"/>
       <c r="BF23" s="23" t="inlineStr"/>
-      <c r="BG23" s="24" t="inlineStr"/>
+      <c r="BG23" s="32" t="inlineStr"/>
       <c r="BH23" s="32" t="inlineStr"/>
       <c r="BI23" s="32" t="inlineStr"/>
       <c r="BJ23" s="32" t="inlineStr"/>
@@ -3541,13 +3903,15 @@
       <c r="BU23" s="32" t="inlineStr"/>
       <c r="BV23" s="32" t="inlineStr"/>
       <c r="BW23" s="32" t="inlineStr"/>
-      <c r="BX23" s="25" t="inlineStr"/>
-      <c r="BY23" s="33" t="inlineStr"/>
+      <c r="BX23" s="32" t="inlineStr"/>
+      <c r="BY23" s="25" t="inlineStr"/>
       <c r="BZ23" s="33" t="inlineStr"/>
       <c r="CA23" s="33" t="inlineStr"/>
       <c r="CB23" s="33" t="inlineStr"/>
-      <c r="CC23" s="26" t="inlineStr"/>
-      <c r="CD23" s="27" t="inlineStr"/>
+      <c r="CC23" s="33" t="inlineStr"/>
+      <c r="CD23" s="26" t="inlineStr"/>
+      <c r="CE23" s="27" t="inlineStr"/>
+      <c r="CF23" s="27" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="16" t="inlineStr"/>
@@ -3608,7 +3972,7 @@
       <c r="BD24" s="21" t="inlineStr"/>
       <c r="BE24" s="21" t="inlineStr"/>
       <c r="BF24" s="23" t="inlineStr"/>
-      <c r="BG24" s="24" t="inlineStr"/>
+      <c r="BG24" s="32" t="inlineStr"/>
       <c r="BH24" s="32" t="inlineStr"/>
       <c r="BI24" s="32" t="inlineStr"/>
       <c r="BJ24" s="32" t="inlineStr"/>
@@ -3625,13 +3989,15 @@
       <c r="BU24" s="32" t="inlineStr"/>
       <c r="BV24" s="32" t="inlineStr"/>
       <c r="BW24" s="32" t="inlineStr"/>
-      <c r="BX24" s="25" t="inlineStr"/>
-      <c r="BY24" s="33" t="inlineStr"/>
+      <c r="BX24" s="32" t="inlineStr"/>
+      <c r="BY24" s="25" t="inlineStr"/>
       <c r="BZ24" s="33" t="inlineStr"/>
       <c r="CA24" s="33" t="inlineStr"/>
       <c r="CB24" s="33" t="inlineStr"/>
-      <c r="CC24" s="26" t="inlineStr"/>
-      <c r="CD24" s="27" t="inlineStr"/>
+      <c r="CC24" s="33" t="inlineStr"/>
+      <c r="CD24" s="26" t="inlineStr"/>
+      <c r="CE24" s="27" t="inlineStr"/>
+      <c r="CF24" s="27" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="16" t="inlineStr"/>
@@ -3692,7 +4058,7 @@
       <c r="BD25" s="21" t="inlineStr"/>
       <c r="BE25" s="21" t="inlineStr"/>
       <c r="BF25" s="23" t="inlineStr"/>
-      <c r="BG25" s="24" t="inlineStr"/>
+      <c r="BG25" s="32" t="inlineStr"/>
       <c r="BH25" s="32" t="inlineStr"/>
       <c r="BI25" s="32" t="inlineStr"/>
       <c r="BJ25" s="32" t="inlineStr"/>
@@ -3709,13 +4075,15 @@
       <c r="BU25" s="32" t="inlineStr"/>
       <c r="BV25" s="32" t="inlineStr"/>
       <c r="BW25" s="32" t="inlineStr"/>
-      <c r="BX25" s="25" t="inlineStr"/>
-      <c r="BY25" s="33" t="inlineStr"/>
+      <c r="BX25" s="32" t="inlineStr"/>
+      <c r="BY25" s="25" t="inlineStr"/>
       <c r="BZ25" s="33" t="inlineStr"/>
       <c r="CA25" s="33" t="inlineStr"/>
       <c r="CB25" s="33" t="inlineStr"/>
-      <c r="CC25" s="26" t="inlineStr"/>
-      <c r="CD25" s="27" t="inlineStr"/>
+      <c r="CC25" s="33" t="inlineStr"/>
+      <c r="CD25" s="26" t="inlineStr"/>
+      <c r="CE25" s="27" t="inlineStr"/>
+      <c r="CF25" s="27" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="16" t="inlineStr"/>
@@ -3776,7 +4144,7 @@
       <c r="BD26" s="21" t="inlineStr"/>
       <c r="BE26" s="21" t="inlineStr"/>
       <c r="BF26" s="23" t="inlineStr"/>
-      <c r="BG26" s="24" t="inlineStr"/>
+      <c r="BG26" s="32" t="inlineStr"/>
       <c r="BH26" s="32" t="inlineStr"/>
       <c r="BI26" s="32" t="inlineStr"/>
       <c r="BJ26" s="32" t="inlineStr"/>
@@ -3793,13 +4161,15 @@
       <c r="BU26" s="32" t="inlineStr"/>
       <c r="BV26" s="32" t="inlineStr"/>
       <c r="BW26" s="32" t="inlineStr"/>
-      <c r="BX26" s="25" t="inlineStr"/>
-      <c r="BY26" s="33" t="inlineStr"/>
+      <c r="BX26" s="32" t="inlineStr"/>
+      <c r="BY26" s="25" t="inlineStr"/>
       <c r="BZ26" s="33" t="inlineStr"/>
       <c r="CA26" s="33" t="inlineStr"/>
       <c r="CB26" s="33" t="inlineStr"/>
-      <c r="CC26" s="26" t="inlineStr"/>
-      <c r="CD26" s="27" t="inlineStr"/>
+      <c r="CC26" s="33" t="inlineStr"/>
+      <c r="CD26" s="26" t="inlineStr"/>
+      <c r="CE26" s="27" t="inlineStr"/>
+      <c r="CF26" s="27" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="16" t="inlineStr"/>
@@ -3860,7 +4230,7 @@
       <c r="BD27" s="21" t="inlineStr"/>
       <c r="BE27" s="21" t="inlineStr"/>
       <c r="BF27" s="23" t="inlineStr"/>
-      <c r="BG27" s="24" t="inlineStr"/>
+      <c r="BG27" s="32" t="inlineStr"/>
       <c r="BH27" s="32" t="inlineStr"/>
       <c r="BI27" s="32" t="inlineStr"/>
       <c r="BJ27" s="32" t="inlineStr"/>
@@ -3877,13 +4247,15 @@
       <c r="BU27" s="32" t="inlineStr"/>
       <c r="BV27" s="32" t="inlineStr"/>
       <c r="BW27" s="32" t="inlineStr"/>
-      <c r="BX27" s="25" t="inlineStr"/>
-      <c r="BY27" s="33" t="inlineStr"/>
+      <c r="BX27" s="32" t="inlineStr"/>
+      <c r="BY27" s="25" t="inlineStr"/>
       <c r="BZ27" s="33" t="inlineStr"/>
       <c r="CA27" s="33" t="inlineStr"/>
       <c r="CB27" s="33" t="inlineStr"/>
-      <c r="CC27" s="26" t="inlineStr"/>
-      <c r="CD27" s="27" t="inlineStr"/>
+      <c r="CC27" s="33" t="inlineStr"/>
+      <c r="CD27" s="26" t="inlineStr"/>
+      <c r="CE27" s="27" t="inlineStr"/>
+      <c r="CF27" s="27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="16" t="inlineStr"/>
@@ -3944,7 +4316,7 @@
       <c r="BD28" s="21" t="inlineStr"/>
       <c r="BE28" s="21" t="inlineStr"/>
       <c r="BF28" s="23" t="inlineStr"/>
-      <c r="BG28" s="24" t="inlineStr"/>
+      <c r="BG28" s="32" t="inlineStr"/>
       <c r="BH28" s="32" t="inlineStr"/>
       <c r="BI28" s="32" t="inlineStr"/>
       <c r="BJ28" s="32" t="inlineStr"/>
@@ -3961,13 +4333,15 @@
       <c r="BU28" s="32" t="inlineStr"/>
       <c r="BV28" s="32" t="inlineStr"/>
       <c r="BW28" s="32" t="inlineStr"/>
-      <c r="BX28" s="25" t="inlineStr"/>
-      <c r="BY28" s="33" t="inlineStr"/>
+      <c r="BX28" s="32" t="inlineStr"/>
+      <c r="BY28" s="25" t="inlineStr"/>
       <c r="BZ28" s="33" t="inlineStr"/>
       <c r="CA28" s="33" t="inlineStr"/>
       <c r="CB28" s="33" t="inlineStr"/>
-      <c r="CC28" s="26" t="inlineStr"/>
-      <c r="CD28" s="27" t="inlineStr"/>
+      <c r="CC28" s="33" t="inlineStr"/>
+      <c r="CD28" s="26" t="inlineStr"/>
+      <c r="CE28" s="27" t="inlineStr"/>
+      <c r="CF28" s="27" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="16" t="inlineStr"/>
@@ -4028,7 +4402,7 @@
       <c r="BD29" s="21" t="inlineStr"/>
       <c r="BE29" s="21" t="inlineStr"/>
       <c r="BF29" s="23" t="inlineStr"/>
-      <c r="BG29" s="24" t="inlineStr"/>
+      <c r="BG29" s="32" t="inlineStr"/>
       <c r="BH29" s="32" t="inlineStr"/>
       <c r="BI29" s="32" t="inlineStr"/>
       <c r="BJ29" s="32" t="inlineStr"/>
@@ -4045,13 +4419,15 @@
       <c r="BU29" s="32" t="inlineStr"/>
       <c r="BV29" s="32" t="inlineStr"/>
       <c r="BW29" s="32" t="inlineStr"/>
-      <c r="BX29" s="25" t="inlineStr"/>
-      <c r="BY29" s="33" t="inlineStr"/>
+      <c r="BX29" s="32" t="inlineStr"/>
+      <c r="BY29" s="25" t="inlineStr"/>
       <c r="BZ29" s="33" t="inlineStr"/>
       <c r="CA29" s="33" t="inlineStr"/>
       <c r="CB29" s="33" t="inlineStr"/>
-      <c r="CC29" s="26" t="inlineStr"/>
-      <c r="CD29" s="27" t="inlineStr"/>
+      <c r="CC29" s="33" t="inlineStr"/>
+      <c r="CD29" s="26" t="inlineStr"/>
+      <c r="CE29" s="27" t="inlineStr"/>
+      <c r="CF29" s="27" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="16" t="inlineStr"/>
@@ -4112,7 +4488,7 @@
       <c r="BD30" s="21" t="inlineStr"/>
       <c r="BE30" s="21" t="inlineStr"/>
       <c r="BF30" s="23" t="inlineStr"/>
-      <c r="BG30" s="24" t="inlineStr"/>
+      <c r="BG30" s="32" t="inlineStr"/>
       <c r="BH30" s="32" t="inlineStr"/>
       <c r="BI30" s="32" t="inlineStr"/>
       <c r="BJ30" s="32" t="inlineStr"/>
@@ -4129,13 +4505,15 @@
       <c r="BU30" s="32" t="inlineStr"/>
       <c r="BV30" s="32" t="inlineStr"/>
       <c r="BW30" s="32" t="inlineStr"/>
-      <c r="BX30" s="25" t="inlineStr"/>
-      <c r="BY30" s="33" t="inlineStr"/>
+      <c r="BX30" s="32" t="inlineStr"/>
+      <c r="BY30" s="25" t="inlineStr"/>
       <c r="BZ30" s="33" t="inlineStr"/>
       <c r="CA30" s="33" t="inlineStr"/>
       <c r="CB30" s="33" t="inlineStr"/>
-      <c r="CC30" s="26" t="inlineStr"/>
-      <c r="CD30" s="27" t="inlineStr"/>
+      <c r="CC30" s="33" t="inlineStr"/>
+      <c r="CD30" s="26" t="inlineStr"/>
+      <c r="CE30" s="27" t="inlineStr"/>
+      <c r="CF30" s="27" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="16" t="inlineStr"/>
@@ -4196,7 +4574,7 @@
       <c r="BD31" s="21" t="inlineStr"/>
       <c r="BE31" s="21" t="inlineStr"/>
       <c r="BF31" s="23" t="inlineStr"/>
-      <c r="BG31" s="24" t="inlineStr"/>
+      <c r="BG31" s="32" t="inlineStr"/>
       <c r="BH31" s="32" t="inlineStr"/>
       <c r="BI31" s="32" t="inlineStr"/>
       <c r="BJ31" s="32" t="inlineStr"/>
@@ -4213,13 +4591,15 @@
       <c r="BU31" s="32" t="inlineStr"/>
       <c r="BV31" s="32" t="inlineStr"/>
       <c r="BW31" s="32" t="inlineStr"/>
-      <c r="BX31" s="25" t="inlineStr"/>
-      <c r="BY31" s="33" t="inlineStr"/>
+      <c r="BX31" s="32" t="inlineStr"/>
+      <c r="BY31" s="25" t="inlineStr"/>
       <c r="BZ31" s="33" t="inlineStr"/>
       <c r="CA31" s="33" t="inlineStr"/>
       <c r="CB31" s="33" t="inlineStr"/>
-      <c r="CC31" s="26" t="inlineStr"/>
-      <c r="CD31" s="27" t="inlineStr"/>
+      <c r="CC31" s="33" t="inlineStr"/>
+      <c r="CD31" s="26" t="inlineStr"/>
+      <c r="CE31" s="27" t="inlineStr"/>
+      <c r="CF31" s="27" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="16" t="inlineStr"/>
@@ -4280,7 +4660,7 @@
       <c r="BD32" s="21" t="inlineStr"/>
       <c r="BE32" s="21" t="inlineStr"/>
       <c r="BF32" s="23" t="inlineStr"/>
-      <c r="BG32" s="24" t="inlineStr"/>
+      <c r="BG32" s="32" t="inlineStr"/>
       <c r="BH32" s="32" t="inlineStr"/>
       <c r="BI32" s="32" t="inlineStr"/>
       <c r="BJ32" s="32" t="inlineStr"/>
@@ -4297,13 +4677,15 @@
       <c r="BU32" s="32" t="inlineStr"/>
       <c r="BV32" s="32" t="inlineStr"/>
       <c r="BW32" s="32" t="inlineStr"/>
-      <c r="BX32" s="25" t="inlineStr"/>
-      <c r="BY32" s="33" t="inlineStr"/>
+      <c r="BX32" s="32" t="inlineStr"/>
+      <c r="BY32" s="25" t="inlineStr"/>
       <c r="BZ32" s="33" t="inlineStr"/>
       <c r="CA32" s="33" t="inlineStr"/>
       <c r="CB32" s="33" t="inlineStr"/>
-      <c r="CC32" s="26" t="inlineStr"/>
-      <c r="CD32" s="27" t="inlineStr"/>
+      <c r="CC32" s="33" t="inlineStr"/>
+      <c r="CD32" s="26" t="inlineStr"/>
+      <c r="CE32" s="27" t="inlineStr"/>
+      <c r="CF32" s="27" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="16" t="inlineStr"/>
@@ -4364,7 +4746,7 @@
       <c r="BD33" s="21" t="inlineStr"/>
       <c r="BE33" s="21" t="inlineStr"/>
       <c r="BF33" s="23" t="inlineStr"/>
-      <c r="BG33" s="24" t="inlineStr"/>
+      <c r="BG33" s="32" t="inlineStr"/>
       <c r="BH33" s="32" t="inlineStr"/>
       <c r="BI33" s="32" t="inlineStr"/>
       <c r="BJ33" s="32" t="inlineStr"/>
@@ -4381,13 +4763,15 @@
       <c r="BU33" s="32" t="inlineStr"/>
       <c r="BV33" s="32" t="inlineStr"/>
       <c r="BW33" s="32" t="inlineStr"/>
-      <c r="BX33" s="25" t="inlineStr"/>
-      <c r="BY33" s="33" t="inlineStr"/>
+      <c r="BX33" s="32" t="inlineStr"/>
+      <c r="BY33" s="25" t="inlineStr"/>
       <c r="BZ33" s="33" t="inlineStr"/>
       <c r="CA33" s="33" t="inlineStr"/>
       <c r="CB33" s="33" t="inlineStr"/>
-      <c r="CC33" s="26" t="inlineStr"/>
-      <c r="CD33" s="27" t="inlineStr"/>
+      <c r="CC33" s="33" t="inlineStr"/>
+      <c r="CD33" s="26" t="inlineStr"/>
+      <c r="CE33" s="27" t="inlineStr"/>
+      <c r="CF33" s="27" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="16" t="inlineStr"/>
@@ -4448,7 +4832,7 @@
       <c r="BD34" s="21" t="inlineStr"/>
       <c r="BE34" s="21" t="inlineStr"/>
       <c r="BF34" s="23" t="inlineStr"/>
-      <c r="BG34" s="24" t="inlineStr"/>
+      <c r="BG34" s="32" t="inlineStr"/>
       <c r="BH34" s="32" t="inlineStr"/>
       <c r="BI34" s="32" t="inlineStr"/>
       <c r="BJ34" s="32" t="inlineStr"/>
@@ -4465,13 +4849,15 @@
       <c r="BU34" s="32" t="inlineStr"/>
       <c r="BV34" s="32" t="inlineStr"/>
       <c r="BW34" s="32" t="inlineStr"/>
-      <c r="BX34" s="25" t="inlineStr"/>
-      <c r="BY34" s="33" t="inlineStr"/>
+      <c r="BX34" s="32" t="inlineStr"/>
+      <c r="BY34" s="25" t="inlineStr"/>
       <c r="BZ34" s="33" t="inlineStr"/>
       <c r="CA34" s="33" t="inlineStr"/>
       <c r="CB34" s="33" t="inlineStr"/>
-      <c r="CC34" s="26" t="inlineStr"/>
-      <c r="CD34" s="27" t="inlineStr"/>
+      <c r="CC34" s="33" t="inlineStr"/>
+      <c r="CD34" s="26" t="inlineStr"/>
+      <c r="CE34" s="27" t="inlineStr"/>
+      <c r="CF34" s="27" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="16" t="inlineStr"/>
@@ -4532,7 +4918,7 @@
       <c r="BD35" s="21" t="inlineStr"/>
       <c r="BE35" s="21" t="inlineStr"/>
       <c r="BF35" s="23" t="inlineStr"/>
-      <c r="BG35" s="24" t="inlineStr"/>
+      <c r="BG35" s="32" t="inlineStr"/>
       <c r="BH35" s="32" t="inlineStr"/>
       <c r="BI35" s="32" t="inlineStr"/>
       <c r="BJ35" s="32" t="inlineStr"/>
@@ -4549,13 +4935,15 @@
       <c r="BU35" s="32" t="inlineStr"/>
       <c r="BV35" s="32" t="inlineStr"/>
       <c r="BW35" s="32" t="inlineStr"/>
-      <c r="BX35" s="25" t="inlineStr"/>
-      <c r="BY35" s="33" t="inlineStr"/>
+      <c r="BX35" s="32" t="inlineStr"/>
+      <c r="BY35" s="25" t="inlineStr"/>
       <c r="BZ35" s="33" t="inlineStr"/>
       <c r="CA35" s="33" t="inlineStr"/>
       <c r="CB35" s="33" t="inlineStr"/>
-      <c r="CC35" s="26" t="inlineStr"/>
-      <c r="CD35" s="27" t="inlineStr"/>
+      <c r="CC35" s="33" t="inlineStr"/>
+      <c r="CD35" s="26" t="inlineStr"/>
+      <c r="CE35" s="27" t="inlineStr"/>
+      <c r="CF35" s="27" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="16" t="inlineStr"/>
@@ -4616,7 +5004,7 @@
       <c r="BD36" s="21" t="inlineStr"/>
       <c r="BE36" s="21" t="inlineStr"/>
       <c r="BF36" s="23" t="inlineStr"/>
-      <c r="BG36" s="24" t="inlineStr"/>
+      <c r="BG36" s="32" t="inlineStr"/>
       <c r="BH36" s="32" t="inlineStr"/>
       <c r="BI36" s="32" t="inlineStr"/>
       <c r="BJ36" s="32" t="inlineStr"/>
@@ -4633,13 +5021,15 @@
       <c r="BU36" s="32" t="inlineStr"/>
       <c r="BV36" s="32" t="inlineStr"/>
       <c r="BW36" s="32" t="inlineStr"/>
-      <c r="BX36" s="25" t="inlineStr"/>
-      <c r="BY36" s="33" t="inlineStr"/>
+      <c r="BX36" s="32" t="inlineStr"/>
+      <c r="BY36" s="25" t="inlineStr"/>
       <c r="BZ36" s="33" t="inlineStr"/>
       <c r="CA36" s="33" t="inlineStr"/>
       <c r="CB36" s="33" t="inlineStr"/>
-      <c r="CC36" s="26" t="inlineStr"/>
-      <c r="CD36" s="27" t="inlineStr"/>
+      <c r="CC36" s="33" t="inlineStr"/>
+      <c r="CD36" s="26" t="inlineStr"/>
+      <c r="CE36" s="27" t="inlineStr"/>
+      <c r="CF36" s="27" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="16" t="inlineStr"/>
@@ -4700,7 +5090,7 @@
       <c r="BD37" s="21" t="inlineStr"/>
       <c r="BE37" s="21" t="inlineStr"/>
       <c r="BF37" s="23" t="inlineStr"/>
-      <c r="BG37" s="24" t="inlineStr"/>
+      <c r="BG37" s="32" t="inlineStr"/>
       <c r="BH37" s="32" t="inlineStr"/>
       <c r="BI37" s="32" t="inlineStr"/>
       <c r="BJ37" s="32" t="inlineStr"/>
@@ -4717,13 +5107,15 @@
       <c r="BU37" s="32" t="inlineStr"/>
       <c r="BV37" s="32" t="inlineStr"/>
       <c r="BW37" s="32" t="inlineStr"/>
-      <c r="BX37" s="25" t="inlineStr"/>
-      <c r="BY37" s="33" t="inlineStr"/>
+      <c r="BX37" s="32" t="inlineStr"/>
+      <c r="BY37" s="25" t="inlineStr"/>
       <c r="BZ37" s="33" t="inlineStr"/>
       <c r="CA37" s="33" t="inlineStr"/>
       <c r="CB37" s="33" t="inlineStr"/>
-      <c r="CC37" s="26" t="inlineStr"/>
-      <c r="CD37" s="27" t="inlineStr"/>
+      <c r="CC37" s="33" t="inlineStr"/>
+      <c r="CD37" s="26" t="inlineStr"/>
+      <c r="CE37" s="27" t="inlineStr"/>
+      <c r="CF37" s="27" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="16" t="inlineStr"/>
@@ -4784,7 +5176,7 @@
       <c r="BD38" s="21" t="inlineStr"/>
       <c r="BE38" s="21" t="inlineStr"/>
       <c r="BF38" s="23" t="inlineStr"/>
-      <c r="BG38" s="24" t="inlineStr"/>
+      <c r="BG38" s="32" t="inlineStr"/>
       <c r="BH38" s="32" t="inlineStr"/>
       <c r="BI38" s="32" t="inlineStr"/>
       <c r="BJ38" s="32" t="inlineStr"/>
@@ -4801,13 +5193,15 @@
       <c r="BU38" s="32" t="inlineStr"/>
       <c r="BV38" s="32" t="inlineStr"/>
       <c r="BW38" s="32" t="inlineStr"/>
-      <c r="BX38" s="25" t="inlineStr"/>
-      <c r="BY38" s="33" t="inlineStr"/>
+      <c r="BX38" s="32" t="inlineStr"/>
+      <c r="BY38" s="25" t="inlineStr"/>
       <c r="BZ38" s="33" t="inlineStr"/>
       <c r="CA38" s="33" t="inlineStr"/>
       <c r="CB38" s="33" t="inlineStr"/>
-      <c r="CC38" s="26" t="inlineStr"/>
-      <c r="CD38" s="27" t="inlineStr"/>
+      <c r="CC38" s="33" t="inlineStr"/>
+      <c r="CD38" s="26" t="inlineStr"/>
+      <c r="CE38" s="27" t="inlineStr"/>
+      <c r="CF38" s="27" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="16" t="inlineStr"/>
@@ -4868,7 +5262,7 @@
       <c r="BD39" s="21" t="inlineStr"/>
       <c r="BE39" s="21" t="inlineStr"/>
       <c r="BF39" s="23" t="inlineStr"/>
-      <c r="BG39" s="24" t="inlineStr"/>
+      <c r="BG39" s="32" t="inlineStr"/>
       <c r="BH39" s="32" t="inlineStr"/>
       <c r="BI39" s="32" t="inlineStr"/>
       <c r="BJ39" s="32" t="inlineStr"/>
@@ -4885,13 +5279,15 @@
       <c r="BU39" s="32" t="inlineStr"/>
       <c r="BV39" s="32" t="inlineStr"/>
       <c r="BW39" s="32" t="inlineStr"/>
-      <c r="BX39" s="25" t="inlineStr"/>
-      <c r="BY39" s="33" t="inlineStr"/>
+      <c r="BX39" s="32" t="inlineStr"/>
+      <c r="BY39" s="25" t="inlineStr"/>
       <c r="BZ39" s="33" t="inlineStr"/>
       <c r="CA39" s="33" t="inlineStr"/>
       <c r="CB39" s="33" t="inlineStr"/>
-      <c r="CC39" s="26" t="inlineStr"/>
-      <c r="CD39" s="27" t="inlineStr"/>
+      <c r="CC39" s="33" t="inlineStr"/>
+      <c r="CD39" s="26" t="inlineStr"/>
+      <c r="CE39" s="27" t="inlineStr"/>
+      <c r="CF39" s="27" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="16" t="inlineStr"/>
@@ -4952,7 +5348,7 @@
       <c r="BD40" s="21" t="inlineStr"/>
       <c r="BE40" s="21" t="inlineStr"/>
       <c r="BF40" s="23" t="inlineStr"/>
-      <c r="BG40" s="24" t="inlineStr"/>
+      <c r="BG40" s="32" t="inlineStr"/>
       <c r="BH40" s="32" t="inlineStr"/>
       <c r="BI40" s="32" t="inlineStr"/>
       <c r="BJ40" s="32" t="inlineStr"/>
@@ -4969,13 +5365,15 @@
       <c r="BU40" s="32" t="inlineStr"/>
       <c r="BV40" s="32" t="inlineStr"/>
       <c r="BW40" s="32" t="inlineStr"/>
-      <c r="BX40" s="25" t="inlineStr"/>
-      <c r="BY40" s="33" t="inlineStr"/>
+      <c r="BX40" s="32" t="inlineStr"/>
+      <c r="BY40" s="25" t="inlineStr"/>
       <c r="BZ40" s="33" t="inlineStr"/>
       <c r="CA40" s="33" t="inlineStr"/>
       <c r="CB40" s="33" t="inlineStr"/>
-      <c r="CC40" s="26" t="inlineStr"/>
-      <c r="CD40" s="27" t="inlineStr"/>
+      <c r="CC40" s="33" t="inlineStr"/>
+      <c r="CD40" s="26" t="inlineStr"/>
+      <c r="CE40" s="27" t="inlineStr"/>
+      <c r="CF40" s="27" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="16" t="inlineStr"/>
@@ -5036,7 +5434,7 @@
       <c r="BD41" s="21" t="inlineStr"/>
       <c r="BE41" s="21" t="inlineStr"/>
       <c r="BF41" s="23" t="inlineStr"/>
-      <c r="BG41" s="24" t="inlineStr"/>
+      <c r="BG41" s="32" t="inlineStr"/>
       <c r="BH41" s="32" t="inlineStr"/>
       <c r="BI41" s="32" t="inlineStr"/>
       <c r="BJ41" s="32" t="inlineStr"/>
@@ -5053,13 +5451,15 @@
       <c r="BU41" s="32" t="inlineStr"/>
       <c r="BV41" s="32" t="inlineStr"/>
       <c r="BW41" s="32" t="inlineStr"/>
-      <c r="BX41" s="25" t="inlineStr"/>
-      <c r="BY41" s="33" t="inlineStr"/>
+      <c r="BX41" s="32" t="inlineStr"/>
+      <c r="BY41" s="25" t="inlineStr"/>
       <c r="BZ41" s="33" t="inlineStr"/>
       <c r="CA41" s="33" t="inlineStr"/>
       <c r="CB41" s="33" t="inlineStr"/>
-      <c r="CC41" s="26" t="inlineStr"/>
-      <c r="CD41" s="27" t="inlineStr"/>
+      <c r="CC41" s="33" t="inlineStr"/>
+      <c r="CD41" s="26" t="inlineStr"/>
+      <c r="CE41" s="27" t="inlineStr"/>
+      <c r="CF41" s="27" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="16" t="inlineStr"/>
@@ -5120,7 +5520,7 @@
       <c r="BD42" s="21" t="inlineStr"/>
       <c r="BE42" s="21" t="inlineStr"/>
       <c r="BF42" s="23" t="inlineStr"/>
-      <c r="BG42" s="24" t="inlineStr"/>
+      <c r="BG42" s="32" t="inlineStr"/>
       <c r="BH42" s="32" t="inlineStr"/>
       <c r="BI42" s="32" t="inlineStr"/>
       <c r="BJ42" s="32" t="inlineStr"/>
@@ -5137,13 +5537,15 @@
       <c r="BU42" s="32" t="inlineStr"/>
       <c r="BV42" s="32" t="inlineStr"/>
       <c r="BW42" s="32" t="inlineStr"/>
-      <c r="BX42" s="25" t="inlineStr"/>
-      <c r="BY42" s="33" t="inlineStr"/>
+      <c r="BX42" s="32" t="inlineStr"/>
+      <c r="BY42" s="25" t="inlineStr"/>
       <c r="BZ42" s="33" t="inlineStr"/>
       <c r="CA42" s="33" t="inlineStr"/>
       <c r="CB42" s="33" t="inlineStr"/>
-      <c r="CC42" s="26" t="inlineStr"/>
-      <c r="CD42" s="27" t="inlineStr"/>
+      <c r="CC42" s="33" t="inlineStr"/>
+      <c r="CD42" s="26" t="inlineStr"/>
+      <c r="CE42" s="27" t="inlineStr"/>
+      <c r="CF42" s="27" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="16" t="inlineStr"/>
@@ -5204,7 +5606,7 @@
       <c r="BD43" s="21" t="inlineStr"/>
       <c r="BE43" s="21" t="inlineStr"/>
       <c r="BF43" s="23" t="inlineStr"/>
-      <c r="BG43" s="24" t="inlineStr"/>
+      <c r="BG43" s="32" t="inlineStr"/>
       <c r="BH43" s="32" t="inlineStr"/>
       <c r="BI43" s="32" t="inlineStr"/>
       <c r="BJ43" s="32" t="inlineStr"/>
@@ -5221,13 +5623,15 @@
       <c r="BU43" s="32" t="inlineStr"/>
       <c r="BV43" s="32" t="inlineStr"/>
       <c r="BW43" s="32" t="inlineStr"/>
-      <c r="BX43" s="25" t="inlineStr"/>
-      <c r="BY43" s="33" t="inlineStr"/>
+      <c r="BX43" s="32" t="inlineStr"/>
+      <c r="BY43" s="25" t="inlineStr"/>
       <c r="BZ43" s="33" t="inlineStr"/>
       <c r="CA43" s="33" t="inlineStr"/>
       <c r="CB43" s="33" t="inlineStr"/>
-      <c r="CC43" s="26" t="inlineStr"/>
-      <c r="CD43" s="27" t="inlineStr"/>
+      <c r="CC43" s="33" t="inlineStr"/>
+      <c r="CD43" s="26" t="inlineStr"/>
+      <c r="CE43" s="27" t="inlineStr"/>
+      <c r="CF43" s="27" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="16" t="inlineStr"/>
@@ -5288,7 +5692,7 @@
       <c r="BD44" s="21" t="inlineStr"/>
       <c r="BE44" s="21" t="inlineStr"/>
       <c r="BF44" s="23" t="inlineStr"/>
-      <c r="BG44" s="24" t="inlineStr"/>
+      <c r="BG44" s="32" t="inlineStr"/>
       <c r="BH44" s="32" t="inlineStr"/>
       <c r="BI44" s="32" t="inlineStr"/>
       <c r="BJ44" s="32" t="inlineStr"/>
@@ -5305,13 +5709,15 @@
       <c r="BU44" s="32" t="inlineStr"/>
       <c r="BV44" s="32" t="inlineStr"/>
       <c r="BW44" s="32" t="inlineStr"/>
-      <c r="BX44" s="25" t="inlineStr"/>
-      <c r="BY44" s="33" t="inlineStr"/>
+      <c r="BX44" s="32" t="inlineStr"/>
+      <c r="BY44" s="25" t="inlineStr"/>
       <c r="BZ44" s="33" t="inlineStr"/>
       <c r="CA44" s="33" t="inlineStr"/>
       <c r="CB44" s="33" t="inlineStr"/>
-      <c r="CC44" s="26" t="inlineStr"/>
-      <c r="CD44" s="27" t="inlineStr"/>
+      <c r="CC44" s="33" t="inlineStr"/>
+      <c r="CD44" s="26" t="inlineStr"/>
+      <c r="CE44" s="27" t="inlineStr"/>
+      <c r="CF44" s="27" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="16" t="inlineStr"/>
@@ -5372,7 +5778,7 @@
       <c r="BD45" s="21" t="inlineStr"/>
       <c r="BE45" s="21" t="inlineStr"/>
       <c r="BF45" s="23" t="inlineStr"/>
-      <c r="BG45" s="24" t="inlineStr"/>
+      <c r="BG45" s="32" t="inlineStr"/>
       <c r="BH45" s="32" t="inlineStr"/>
       <c r="BI45" s="32" t="inlineStr"/>
       <c r="BJ45" s="32" t="inlineStr"/>
@@ -5389,13 +5795,15 @@
       <c r="BU45" s="32" t="inlineStr"/>
       <c r="BV45" s="32" t="inlineStr"/>
       <c r="BW45" s="32" t="inlineStr"/>
-      <c r="BX45" s="25" t="inlineStr"/>
-      <c r="BY45" s="33" t="inlineStr"/>
+      <c r="BX45" s="32" t="inlineStr"/>
+      <c r="BY45" s="25" t="inlineStr"/>
       <c r="BZ45" s="33" t="inlineStr"/>
       <c r="CA45" s="33" t="inlineStr"/>
       <c r="CB45" s="33" t="inlineStr"/>
-      <c r="CC45" s="26" t="inlineStr"/>
-      <c r="CD45" s="27" t="inlineStr"/>
+      <c r="CC45" s="33" t="inlineStr"/>
+      <c r="CD45" s="26" t="inlineStr"/>
+      <c r="CE45" s="27" t="inlineStr"/>
+      <c r="CF45" s="27" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="16" t="inlineStr"/>
@@ -5456,7 +5864,7 @@
       <c r="BD46" s="21" t="inlineStr"/>
       <c r="BE46" s="21" t="inlineStr"/>
       <c r="BF46" s="23" t="inlineStr"/>
-      <c r="BG46" s="24" t="inlineStr"/>
+      <c r="BG46" s="32" t="inlineStr"/>
       <c r="BH46" s="32" t="inlineStr"/>
       <c r="BI46" s="32" t="inlineStr"/>
       <c r="BJ46" s="32" t="inlineStr"/>
@@ -5473,13 +5881,15 @@
       <c r="BU46" s="32" t="inlineStr"/>
       <c r="BV46" s="32" t="inlineStr"/>
       <c r="BW46" s="32" t="inlineStr"/>
-      <c r="BX46" s="25" t="inlineStr"/>
-      <c r="BY46" s="33" t="inlineStr"/>
+      <c r="BX46" s="32" t="inlineStr"/>
+      <c r="BY46" s="25" t="inlineStr"/>
       <c r="BZ46" s="33" t="inlineStr"/>
       <c r="CA46" s="33" t="inlineStr"/>
       <c r="CB46" s="33" t="inlineStr"/>
-      <c r="CC46" s="26" t="inlineStr"/>
-      <c r="CD46" s="27" t="inlineStr"/>
+      <c r="CC46" s="33" t="inlineStr"/>
+      <c r="CD46" s="26" t="inlineStr"/>
+      <c r="CE46" s="27" t="inlineStr"/>
+      <c r="CF46" s="27" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="16" t="inlineStr"/>
@@ -5540,7 +5950,7 @@
       <c r="BD47" s="21" t="inlineStr"/>
       <c r="BE47" s="21" t="inlineStr"/>
       <c r="BF47" s="23" t="inlineStr"/>
-      <c r="BG47" s="24" t="inlineStr"/>
+      <c r="BG47" s="32" t="inlineStr"/>
       <c r="BH47" s="32" t="inlineStr"/>
       <c r="BI47" s="32" t="inlineStr"/>
       <c r="BJ47" s="32" t="inlineStr"/>
@@ -5557,13 +5967,15 @@
       <c r="BU47" s="32" t="inlineStr"/>
       <c r="BV47" s="32" t="inlineStr"/>
       <c r="BW47" s="32" t="inlineStr"/>
-      <c r="BX47" s="25" t="inlineStr"/>
-      <c r="BY47" s="33" t="inlineStr"/>
+      <c r="BX47" s="32" t="inlineStr"/>
+      <c r="BY47" s="25" t="inlineStr"/>
       <c r="BZ47" s="33" t="inlineStr"/>
       <c r="CA47" s="33" t="inlineStr"/>
       <c r="CB47" s="33" t="inlineStr"/>
-      <c r="CC47" s="26" t="inlineStr"/>
-      <c r="CD47" s="27" t="inlineStr"/>
+      <c r="CC47" s="33" t="inlineStr"/>
+      <c r="CD47" s="26" t="inlineStr"/>
+      <c r="CE47" s="27" t="inlineStr"/>
+      <c r="CF47" s="27" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="16" t="inlineStr"/>
@@ -5624,7 +6036,7 @@
       <c r="BD48" s="21" t="inlineStr"/>
       <c r="BE48" s="21" t="inlineStr"/>
       <c r="BF48" s="23" t="inlineStr"/>
-      <c r="BG48" s="24" t="inlineStr"/>
+      <c r="BG48" s="32" t="inlineStr"/>
       <c r="BH48" s="32" t="inlineStr"/>
       <c r="BI48" s="32" t="inlineStr"/>
       <c r="BJ48" s="32" t="inlineStr"/>
@@ -5641,13 +6053,15 @@
       <c r="BU48" s="32" t="inlineStr"/>
       <c r="BV48" s="32" t="inlineStr"/>
       <c r="BW48" s="32" t="inlineStr"/>
-      <c r="BX48" s="25" t="inlineStr"/>
-      <c r="BY48" s="33" t="inlineStr"/>
+      <c r="BX48" s="32" t="inlineStr"/>
+      <c r="BY48" s="25" t="inlineStr"/>
       <c r="BZ48" s="33" t="inlineStr"/>
       <c r="CA48" s="33" t="inlineStr"/>
       <c r="CB48" s="33" t="inlineStr"/>
-      <c r="CC48" s="26" t="inlineStr"/>
-      <c r="CD48" s="27" t="inlineStr"/>
+      <c r="CC48" s="33" t="inlineStr"/>
+      <c r="CD48" s="26" t="inlineStr"/>
+      <c r="CE48" s="27" t="inlineStr"/>
+      <c r="CF48" s="27" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="16" t="inlineStr"/>
@@ -5708,7 +6122,7 @@
       <c r="BD49" s="21" t="inlineStr"/>
       <c r="BE49" s="21" t="inlineStr"/>
       <c r="BF49" s="23" t="inlineStr"/>
-      <c r="BG49" s="24" t="inlineStr"/>
+      <c r="BG49" s="32" t="inlineStr"/>
       <c r="BH49" s="32" t="inlineStr"/>
       <c r="BI49" s="32" t="inlineStr"/>
       <c r="BJ49" s="32" t="inlineStr"/>
@@ -5725,13 +6139,15 @@
       <c r="BU49" s="32" t="inlineStr"/>
       <c r="BV49" s="32" t="inlineStr"/>
       <c r="BW49" s="32" t="inlineStr"/>
-      <c r="BX49" s="25" t="inlineStr"/>
-      <c r="BY49" s="33" t="inlineStr"/>
+      <c r="BX49" s="32" t="inlineStr"/>
+      <c r="BY49" s="25" t="inlineStr"/>
       <c r="BZ49" s="33" t="inlineStr"/>
       <c r="CA49" s="33" t="inlineStr"/>
       <c r="CB49" s="33" t="inlineStr"/>
-      <c r="CC49" s="26" t="inlineStr"/>
-      <c r="CD49" s="27" t="inlineStr"/>
+      <c r="CC49" s="33" t="inlineStr"/>
+      <c r="CD49" s="26" t="inlineStr"/>
+      <c r="CE49" s="27" t="inlineStr"/>
+      <c r="CF49" s="27" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="16" t="inlineStr"/>
@@ -5792,7 +6208,7 @@
       <c r="BD50" s="21" t="inlineStr"/>
       <c r="BE50" s="21" t="inlineStr"/>
       <c r="BF50" s="23" t="inlineStr"/>
-      <c r="BG50" s="24" t="inlineStr"/>
+      <c r="BG50" s="32" t="inlineStr"/>
       <c r="BH50" s="32" t="inlineStr"/>
       <c r="BI50" s="32" t="inlineStr"/>
       <c r="BJ50" s="32" t="inlineStr"/>
@@ -5809,13 +6225,15 @@
       <c r="BU50" s="32" t="inlineStr"/>
       <c r="BV50" s="32" t="inlineStr"/>
       <c r="BW50" s="32" t="inlineStr"/>
-      <c r="BX50" s="25" t="inlineStr"/>
-      <c r="BY50" s="33" t="inlineStr"/>
+      <c r="BX50" s="32" t="inlineStr"/>
+      <c r="BY50" s="25" t="inlineStr"/>
       <c r="BZ50" s="33" t="inlineStr"/>
       <c r="CA50" s="33" t="inlineStr"/>
       <c r="CB50" s="33" t="inlineStr"/>
-      <c r="CC50" s="26" t="inlineStr"/>
-      <c r="CD50" s="27" t="inlineStr"/>
+      <c r="CC50" s="33" t="inlineStr"/>
+      <c r="CD50" s="26" t="inlineStr"/>
+      <c r="CE50" s="27" t="inlineStr"/>
+      <c r="CF50" s="27" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="16" t="inlineStr"/>
@@ -5876,7 +6294,7 @@
       <c r="BD51" s="21" t="inlineStr"/>
       <c r="BE51" s="21" t="inlineStr"/>
       <c r="BF51" s="23" t="inlineStr"/>
-      <c r="BG51" s="24" t="inlineStr"/>
+      <c r="BG51" s="32" t="inlineStr"/>
       <c r="BH51" s="32" t="inlineStr"/>
       <c r="BI51" s="32" t="inlineStr"/>
       <c r="BJ51" s="32" t="inlineStr"/>
@@ -5893,13 +6311,15 @@
       <c r="BU51" s="32" t="inlineStr"/>
       <c r="BV51" s="32" t="inlineStr"/>
       <c r="BW51" s="32" t="inlineStr"/>
-      <c r="BX51" s="25" t="inlineStr"/>
-      <c r="BY51" s="33" t="inlineStr"/>
+      <c r="BX51" s="32" t="inlineStr"/>
+      <c r="BY51" s="25" t="inlineStr"/>
       <c r="BZ51" s="33" t="inlineStr"/>
       <c r="CA51" s="33" t="inlineStr"/>
       <c r="CB51" s="33" t="inlineStr"/>
-      <c r="CC51" s="26" t="inlineStr"/>
-      <c r="CD51" s="27" t="inlineStr"/>
+      <c r="CC51" s="33" t="inlineStr"/>
+      <c r="CD51" s="26" t="inlineStr"/>
+      <c r="CE51" s="27" t="inlineStr"/>
+      <c r="CF51" s="27" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="16" t="inlineStr"/>
@@ -5960,7 +6380,7 @@
       <c r="BD52" s="21" t="inlineStr"/>
       <c r="BE52" s="21" t="inlineStr"/>
       <c r="BF52" s="23" t="inlineStr"/>
-      <c r="BG52" s="24" t="inlineStr"/>
+      <c r="BG52" s="32" t="inlineStr"/>
       <c r="BH52" s="32" t="inlineStr"/>
       <c r="BI52" s="32" t="inlineStr"/>
       <c r="BJ52" s="32" t="inlineStr"/>
@@ -5977,13 +6397,15 @@
       <c r="BU52" s="32" t="inlineStr"/>
       <c r="BV52" s="32" t="inlineStr"/>
       <c r="BW52" s="32" t="inlineStr"/>
-      <c r="BX52" s="25" t="inlineStr"/>
-      <c r="BY52" s="33" t="inlineStr"/>
+      <c r="BX52" s="32" t="inlineStr"/>
+      <c r="BY52" s="25" t="inlineStr"/>
       <c r="BZ52" s="33" t="inlineStr"/>
       <c r="CA52" s="33" t="inlineStr"/>
       <c r="CB52" s="33" t="inlineStr"/>
-      <c r="CC52" s="26" t="inlineStr"/>
-      <c r="CD52" s="27" t="inlineStr"/>
+      <c r="CC52" s="33" t="inlineStr"/>
+      <c r="CD52" s="26" t="inlineStr"/>
+      <c r="CE52" s="27" t="inlineStr"/>
+      <c r="CF52" s="27" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="16" t="inlineStr"/>
@@ -6044,7 +6466,7 @@
       <c r="BD53" s="21" t="inlineStr"/>
       <c r="BE53" s="21" t="inlineStr"/>
       <c r="BF53" s="23" t="inlineStr"/>
-      <c r="BG53" s="24" t="inlineStr"/>
+      <c r="BG53" s="32" t="inlineStr"/>
       <c r="BH53" s="32" t="inlineStr"/>
       <c r="BI53" s="32" t="inlineStr"/>
       <c r="BJ53" s="32" t="inlineStr"/>
@@ -6061,13 +6483,15 @@
       <c r="BU53" s="32" t="inlineStr"/>
       <c r="BV53" s="32" t="inlineStr"/>
       <c r="BW53" s="32" t="inlineStr"/>
-      <c r="BX53" s="25" t="inlineStr"/>
-      <c r="BY53" s="33" t="inlineStr"/>
+      <c r="BX53" s="32" t="inlineStr"/>
+      <c r="BY53" s="25" t="inlineStr"/>
       <c r="BZ53" s="33" t="inlineStr"/>
       <c r="CA53" s="33" t="inlineStr"/>
       <c r="CB53" s="33" t="inlineStr"/>
-      <c r="CC53" s="26" t="inlineStr"/>
-      <c r="CD53" s="27" t="inlineStr"/>
+      <c r="CC53" s="33" t="inlineStr"/>
+      <c r="CD53" s="26" t="inlineStr"/>
+      <c r="CE53" s="27" t="inlineStr"/>
+      <c r="CF53" s="27" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="16" t="inlineStr"/>
@@ -6128,7 +6552,7 @@
       <c r="BD54" s="21" t="inlineStr"/>
       <c r="BE54" s="21" t="inlineStr"/>
       <c r="BF54" s="23" t="inlineStr"/>
-      <c r="BG54" s="24" t="inlineStr"/>
+      <c r="BG54" s="32" t="inlineStr"/>
       <c r="BH54" s="32" t="inlineStr"/>
       <c r="BI54" s="32" t="inlineStr"/>
       <c r="BJ54" s="32" t="inlineStr"/>
@@ -6145,13 +6569,15 @@
       <c r="BU54" s="32" t="inlineStr"/>
       <c r="BV54" s="32" t="inlineStr"/>
       <c r="BW54" s="32" t="inlineStr"/>
-      <c r="BX54" s="25" t="inlineStr"/>
-      <c r="BY54" s="33" t="inlineStr"/>
+      <c r="BX54" s="32" t="inlineStr"/>
+      <c r="BY54" s="25" t="inlineStr"/>
       <c r="BZ54" s="33" t="inlineStr"/>
       <c r="CA54" s="33" t="inlineStr"/>
       <c r="CB54" s="33" t="inlineStr"/>
-      <c r="CC54" s="26" t="inlineStr"/>
-      <c r="CD54" s="27" t="inlineStr"/>
+      <c r="CC54" s="33" t="inlineStr"/>
+      <c r="CD54" s="26" t="inlineStr"/>
+      <c r="CE54" s="27" t="inlineStr"/>
+      <c r="CF54" s="27" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="16" t="inlineStr"/>
@@ -6212,7 +6638,7 @@
       <c r="BD55" s="21" t="inlineStr"/>
       <c r="BE55" s="21" t="inlineStr"/>
       <c r="BF55" s="23" t="inlineStr"/>
-      <c r="BG55" s="24" t="inlineStr"/>
+      <c r="BG55" s="32" t="inlineStr"/>
       <c r="BH55" s="32" t="inlineStr"/>
       <c r="BI55" s="32" t="inlineStr"/>
       <c r="BJ55" s="32" t="inlineStr"/>
@@ -6229,13 +6655,15 @@
       <c r="BU55" s="32" t="inlineStr"/>
       <c r="BV55" s="32" t="inlineStr"/>
       <c r="BW55" s="32" t="inlineStr"/>
-      <c r="BX55" s="25" t="inlineStr"/>
-      <c r="BY55" s="33" t="inlineStr"/>
+      <c r="BX55" s="32" t="inlineStr"/>
+      <c r="BY55" s="25" t="inlineStr"/>
       <c r="BZ55" s="33" t="inlineStr"/>
       <c r="CA55" s="33" t="inlineStr"/>
       <c r="CB55" s="33" t="inlineStr"/>
-      <c r="CC55" s="26" t="inlineStr"/>
-      <c r="CD55" s="27" t="inlineStr"/>
+      <c r="CC55" s="33" t="inlineStr"/>
+      <c r="CD55" s="26" t="inlineStr"/>
+      <c r="CE55" s="27" t="inlineStr"/>
+      <c r="CF55" s="27" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="16" t="inlineStr"/>
@@ -6296,7 +6724,7 @@
       <c r="BD56" s="21" t="inlineStr"/>
       <c r="BE56" s="21" t="inlineStr"/>
       <c r="BF56" s="23" t="inlineStr"/>
-      <c r="BG56" s="24" t="inlineStr"/>
+      <c r="BG56" s="32" t="inlineStr"/>
       <c r="BH56" s="32" t="inlineStr"/>
       <c r="BI56" s="32" t="inlineStr"/>
       <c r="BJ56" s="32" t="inlineStr"/>
@@ -6313,13 +6741,15 @@
       <c r="BU56" s="32" t="inlineStr"/>
       <c r="BV56" s="32" t="inlineStr"/>
       <c r="BW56" s="32" t="inlineStr"/>
-      <c r="BX56" s="25" t="inlineStr"/>
-      <c r="BY56" s="33" t="inlineStr"/>
+      <c r="BX56" s="32" t="inlineStr"/>
+      <c r="BY56" s="25" t="inlineStr"/>
       <c r="BZ56" s="33" t="inlineStr"/>
       <c r="CA56" s="33" t="inlineStr"/>
       <c r="CB56" s="33" t="inlineStr"/>
-      <c r="CC56" s="26" t="inlineStr"/>
-      <c r="CD56" s="27" t="inlineStr"/>
+      <c r="CC56" s="33" t="inlineStr"/>
+      <c r="CD56" s="26" t="inlineStr"/>
+      <c r="CE56" s="27" t="inlineStr"/>
+      <c r="CF56" s="27" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="16" t="inlineStr"/>
@@ -6380,7 +6810,7 @@
       <c r="BD57" s="21" t="inlineStr"/>
       <c r="BE57" s="21" t="inlineStr"/>
       <c r="BF57" s="23" t="inlineStr"/>
-      <c r="BG57" s="24" t="inlineStr"/>
+      <c r="BG57" s="32" t="inlineStr"/>
       <c r="BH57" s="32" t="inlineStr"/>
       <c r="BI57" s="32" t="inlineStr"/>
       <c r="BJ57" s="32" t="inlineStr"/>
@@ -6397,13 +6827,15 @@
       <c r="BU57" s="32" t="inlineStr"/>
       <c r="BV57" s="32" t="inlineStr"/>
       <c r="BW57" s="32" t="inlineStr"/>
-      <c r="BX57" s="25" t="inlineStr"/>
-      <c r="BY57" s="33" t="inlineStr"/>
+      <c r="BX57" s="32" t="inlineStr"/>
+      <c r="BY57" s="25" t="inlineStr"/>
       <c r="BZ57" s="33" t="inlineStr"/>
       <c r="CA57" s="33" t="inlineStr"/>
       <c r="CB57" s="33" t="inlineStr"/>
-      <c r="CC57" s="26" t="inlineStr"/>
-      <c r="CD57" s="27" t="inlineStr"/>
+      <c r="CC57" s="33" t="inlineStr"/>
+      <c r="CD57" s="26" t="inlineStr"/>
+      <c r="CE57" s="27" t="inlineStr"/>
+      <c r="CF57" s="27" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="16" t="inlineStr"/>
@@ -6464,7 +6896,7 @@
       <c r="BD58" s="21" t="inlineStr"/>
       <c r="BE58" s="21" t="inlineStr"/>
       <c r="BF58" s="23" t="inlineStr"/>
-      <c r="BG58" s="24" t="inlineStr"/>
+      <c r="BG58" s="32" t="inlineStr"/>
       <c r="BH58" s="32" t="inlineStr"/>
       <c r="BI58" s="32" t="inlineStr"/>
       <c r="BJ58" s="32" t="inlineStr"/>
@@ -6481,13 +6913,15 @@
       <c r="BU58" s="32" t="inlineStr"/>
       <c r="BV58" s="32" t="inlineStr"/>
       <c r="BW58" s="32" t="inlineStr"/>
-      <c r="BX58" s="25" t="inlineStr"/>
-      <c r="BY58" s="33" t="inlineStr"/>
+      <c r="BX58" s="32" t="inlineStr"/>
+      <c r="BY58" s="25" t="inlineStr"/>
       <c r="BZ58" s="33" t="inlineStr"/>
       <c r="CA58" s="33" t="inlineStr"/>
       <c r="CB58" s="33" t="inlineStr"/>
-      <c r="CC58" s="26" t="inlineStr"/>
-      <c r="CD58" s="27" t="inlineStr"/>
+      <c r="CC58" s="33" t="inlineStr"/>
+      <c r="CD58" s="26" t="inlineStr"/>
+      <c r="CE58" s="27" t="inlineStr"/>
+      <c r="CF58" s="27" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="16" t="inlineStr"/>
@@ -6548,7 +6982,7 @@
       <c r="BD59" s="21" t="inlineStr"/>
       <c r="BE59" s="21" t="inlineStr"/>
       <c r="BF59" s="23" t="inlineStr"/>
-      <c r="BG59" s="24" t="inlineStr"/>
+      <c r="BG59" s="32" t="inlineStr"/>
       <c r="BH59" s="32" t="inlineStr"/>
       <c r="BI59" s="32" t="inlineStr"/>
       <c r="BJ59" s="32" t="inlineStr"/>
@@ -6565,13 +6999,15 @@
       <c r="BU59" s="32" t="inlineStr"/>
       <c r="BV59" s="32" t="inlineStr"/>
       <c r="BW59" s="32" t="inlineStr"/>
-      <c r="BX59" s="25" t="inlineStr"/>
-      <c r="BY59" s="33" t="inlineStr"/>
+      <c r="BX59" s="32" t="inlineStr"/>
+      <c r="BY59" s="25" t="inlineStr"/>
       <c r="BZ59" s="33" t="inlineStr"/>
       <c r="CA59" s="33" t="inlineStr"/>
       <c r="CB59" s="33" t="inlineStr"/>
-      <c r="CC59" s="26" t="inlineStr"/>
-      <c r="CD59" s="27" t="inlineStr"/>
+      <c r="CC59" s="33" t="inlineStr"/>
+      <c r="CD59" s="26" t="inlineStr"/>
+      <c r="CE59" s="27" t="inlineStr"/>
+      <c r="CF59" s="27" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="16" t="inlineStr"/>
@@ -6632,7 +7068,7 @@
       <c r="BD60" s="21" t="inlineStr"/>
       <c r="BE60" s="21" t="inlineStr"/>
       <c r="BF60" s="23" t="inlineStr"/>
-      <c r="BG60" s="24" t="inlineStr"/>
+      <c r="BG60" s="32" t="inlineStr"/>
       <c r="BH60" s="32" t="inlineStr"/>
       <c r="BI60" s="32" t="inlineStr"/>
       <c r="BJ60" s="32" t="inlineStr"/>
@@ -6649,13 +7085,15 @@
       <c r="BU60" s="32" t="inlineStr"/>
       <c r="BV60" s="32" t="inlineStr"/>
       <c r="BW60" s="32" t="inlineStr"/>
-      <c r="BX60" s="25" t="inlineStr"/>
-      <c r="BY60" s="33" t="inlineStr"/>
+      <c r="BX60" s="32" t="inlineStr"/>
+      <c r="BY60" s="25" t="inlineStr"/>
       <c r="BZ60" s="33" t="inlineStr"/>
       <c r="CA60" s="33" t="inlineStr"/>
       <c r="CB60" s="33" t="inlineStr"/>
-      <c r="CC60" s="26" t="inlineStr"/>
-      <c r="CD60" s="27" t="inlineStr"/>
+      <c r="CC60" s="33" t="inlineStr"/>
+      <c r="CD60" s="26" t="inlineStr"/>
+      <c r="CE60" s="27" t="inlineStr"/>
+      <c r="CF60" s="27" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="16" t="inlineStr"/>
@@ -6716,7 +7154,7 @@
       <c r="BD61" s="21" t="inlineStr"/>
       <c r="BE61" s="21" t="inlineStr"/>
       <c r="BF61" s="23" t="inlineStr"/>
-      <c r="BG61" s="24" t="inlineStr"/>
+      <c r="BG61" s="32" t="inlineStr"/>
       <c r="BH61" s="32" t="inlineStr"/>
       <c r="BI61" s="32" t="inlineStr"/>
       <c r="BJ61" s="32" t="inlineStr"/>
@@ -6733,13 +7171,15 @@
       <c r="BU61" s="32" t="inlineStr"/>
       <c r="BV61" s="32" t="inlineStr"/>
       <c r="BW61" s="32" t="inlineStr"/>
-      <c r="BX61" s="25" t="inlineStr"/>
-      <c r="BY61" s="33" t="inlineStr"/>
+      <c r="BX61" s="32" t="inlineStr"/>
+      <c r="BY61" s="25" t="inlineStr"/>
       <c r="BZ61" s="33" t="inlineStr"/>
       <c r="CA61" s="33" t="inlineStr"/>
       <c r="CB61" s="33" t="inlineStr"/>
-      <c r="CC61" s="26" t="inlineStr"/>
-      <c r="CD61" s="27" t="inlineStr"/>
+      <c r="CC61" s="33" t="inlineStr"/>
+      <c r="CD61" s="26" t="inlineStr"/>
+      <c r="CE61" s="27" t="inlineStr"/>
+      <c r="CF61" s="27" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="16" t="inlineStr"/>
@@ -6800,7 +7240,7 @@
       <c r="BD62" s="21" t="inlineStr"/>
       <c r="BE62" s="21" t="inlineStr"/>
       <c r="BF62" s="23" t="inlineStr"/>
-      <c r="BG62" s="24" t="inlineStr"/>
+      <c r="BG62" s="32" t="inlineStr"/>
       <c r="BH62" s="32" t="inlineStr"/>
       <c r="BI62" s="32" t="inlineStr"/>
       <c r="BJ62" s="32" t="inlineStr"/>
@@ -6817,13 +7257,15 @@
       <c r="BU62" s="32" t="inlineStr"/>
       <c r="BV62" s="32" t="inlineStr"/>
       <c r="BW62" s="32" t="inlineStr"/>
-      <c r="BX62" s="25" t="inlineStr"/>
-      <c r="BY62" s="33" t="inlineStr"/>
+      <c r="BX62" s="32" t="inlineStr"/>
+      <c r="BY62" s="25" t="inlineStr"/>
       <c r="BZ62" s="33" t="inlineStr"/>
       <c r="CA62" s="33" t="inlineStr"/>
       <c r="CB62" s="33" t="inlineStr"/>
-      <c r="CC62" s="26" t="inlineStr"/>
-      <c r="CD62" s="27" t="inlineStr"/>
+      <c r="CC62" s="33" t="inlineStr"/>
+      <c r="CD62" s="26" t="inlineStr"/>
+      <c r="CE62" s="27" t="inlineStr"/>
+      <c r="CF62" s="27" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="16" t="inlineStr"/>
@@ -6884,7 +7326,7 @@
       <c r="BD63" s="21" t="inlineStr"/>
       <c r="BE63" s="21" t="inlineStr"/>
       <c r="BF63" s="23" t="inlineStr"/>
-      <c r="BG63" s="24" t="inlineStr"/>
+      <c r="BG63" s="32" t="inlineStr"/>
       <c r="BH63" s="32" t="inlineStr"/>
       <c r="BI63" s="32" t="inlineStr"/>
       <c r="BJ63" s="32" t="inlineStr"/>
@@ -6901,13 +7343,15 @@
       <c r="BU63" s="32" t="inlineStr"/>
       <c r="BV63" s="32" t="inlineStr"/>
       <c r="BW63" s="32" t="inlineStr"/>
-      <c r="BX63" s="25" t="inlineStr"/>
-      <c r="BY63" s="33" t="inlineStr"/>
+      <c r="BX63" s="32" t="inlineStr"/>
+      <c r="BY63" s="25" t="inlineStr"/>
       <c r="BZ63" s="33" t="inlineStr"/>
       <c r="CA63" s="33" t="inlineStr"/>
       <c r="CB63" s="33" t="inlineStr"/>
-      <c r="CC63" s="26" t="inlineStr"/>
-      <c r="CD63" s="27" t="inlineStr"/>
+      <c r="CC63" s="33" t="inlineStr"/>
+      <c r="CD63" s="26" t="inlineStr"/>
+      <c r="CE63" s="27" t="inlineStr"/>
+      <c r="CF63" s="27" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="16" t="inlineStr"/>
@@ -6968,7 +7412,7 @@
       <c r="BD64" s="21" t="inlineStr"/>
       <c r="BE64" s="21" t="inlineStr"/>
       <c r="BF64" s="23" t="inlineStr"/>
-      <c r="BG64" s="24" t="inlineStr"/>
+      <c r="BG64" s="32" t="inlineStr"/>
       <c r="BH64" s="32" t="inlineStr"/>
       <c r="BI64" s="32" t="inlineStr"/>
       <c r="BJ64" s="32" t="inlineStr"/>
@@ -6985,13 +7429,15 @@
       <c r="BU64" s="32" t="inlineStr"/>
       <c r="BV64" s="32" t="inlineStr"/>
       <c r="BW64" s="32" t="inlineStr"/>
-      <c r="BX64" s="25" t="inlineStr"/>
-      <c r="BY64" s="33" t="inlineStr"/>
+      <c r="BX64" s="32" t="inlineStr"/>
+      <c r="BY64" s="25" t="inlineStr"/>
       <c r="BZ64" s="33" t="inlineStr"/>
       <c r="CA64" s="33" t="inlineStr"/>
       <c r="CB64" s="33" t="inlineStr"/>
-      <c r="CC64" s="26" t="inlineStr"/>
-      <c r="CD64" s="27" t="inlineStr"/>
+      <c r="CC64" s="33" t="inlineStr"/>
+      <c r="CD64" s="26" t="inlineStr"/>
+      <c r="CE64" s="27" t="inlineStr"/>
+      <c r="CF64" s="27" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="16" t="inlineStr"/>
@@ -7052,7 +7498,7 @@
       <c r="BD65" s="21" t="inlineStr"/>
       <c r="BE65" s="21" t="inlineStr"/>
       <c r="BF65" s="23" t="inlineStr"/>
-      <c r="BG65" s="24" t="inlineStr"/>
+      <c r="BG65" s="32" t="inlineStr"/>
       <c r="BH65" s="32" t="inlineStr"/>
       <c r="BI65" s="32" t="inlineStr"/>
       <c r="BJ65" s="32" t="inlineStr"/>
@@ -7069,13 +7515,15 @@
       <c r="BU65" s="32" t="inlineStr"/>
       <c r="BV65" s="32" t="inlineStr"/>
       <c r="BW65" s="32" t="inlineStr"/>
-      <c r="BX65" s="25" t="inlineStr"/>
-      <c r="BY65" s="33" t="inlineStr"/>
+      <c r="BX65" s="32" t="inlineStr"/>
+      <c r="BY65" s="25" t="inlineStr"/>
       <c r="BZ65" s="33" t="inlineStr"/>
       <c r="CA65" s="33" t="inlineStr"/>
       <c r="CB65" s="33" t="inlineStr"/>
-      <c r="CC65" s="26" t="inlineStr"/>
-      <c r="CD65" s="27" t="inlineStr"/>
+      <c r="CC65" s="33" t="inlineStr"/>
+      <c r="CD65" s="26" t="inlineStr"/>
+      <c r="CE65" s="27" t="inlineStr"/>
+      <c r="CF65" s="27" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="16" t="inlineStr"/>
@@ -7136,7 +7584,7 @@
       <c r="BD66" s="21" t="inlineStr"/>
       <c r="BE66" s="21" t="inlineStr"/>
       <c r="BF66" s="23" t="inlineStr"/>
-      <c r="BG66" s="24" t="inlineStr"/>
+      <c r="BG66" s="32" t="inlineStr"/>
       <c r="BH66" s="32" t="inlineStr"/>
       <c r="BI66" s="32" t="inlineStr"/>
       <c r="BJ66" s="32" t="inlineStr"/>
@@ -7153,13 +7601,15 @@
       <c r="BU66" s="32" t="inlineStr"/>
       <c r="BV66" s="32" t="inlineStr"/>
       <c r="BW66" s="32" t="inlineStr"/>
-      <c r="BX66" s="25" t="inlineStr"/>
-      <c r="BY66" s="33" t="inlineStr"/>
+      <c r="BX66" s="32" t="inlineStr"/>
+      <c r="BY66" s="25" t="inlineStr"/>
       <c r="BZ66" s="33" t="inlineStr"/>
       <c r="CA66" s="33" t="inlineStr"/>
       <c r="CB66" s="33" t="inlineStr"/>
-      <c r="CC66" s="26" t="inlineStr"/>
-      <c r="CD66" s="27" t="inlineStr"/>
+      <c r="CC66" s="33" t="inlineStr"/>
+      <c r="CD66" s="26" t="inlineStr"/>
+      <c r="CE66" s="27" t="inlineStr"/>
+      <c r="CF66" s="27" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="16" t="inlineStr"/>
@@ -7220,7 +7670,7 @@
       <c r="BD67" s="21" t="inlineStr"/>
       <c r="BE67" s="21" t="inlineStr"/>
       <c r="BF67" s="23" t="inlineStr"/>
-      <c r="BG67" s="24" t="inlineStr"/>
+      <c r="BG67" s="32" t="inlineStr"/>
       <c r="BH67" s="32" t="inlineStr"/>
       <c r="BI67" s="32" t="inlineStr"/>
       <c r="BJ67" s="32" t="inlineStr"/>
@@ -7237,13 +7687,15 @@
       <c r="BU67" s="32" t="inlineStr"/>
       <c r="BV67" s="32" t="inlineStr"/>
       <c r="BW67" s="32" t="inlineStr"/>
-      <c r="BX67" s="25" t="inlineStr"/>
-      <c r="BY67" s="33" t="inlineStr"/>
+      <c r="BX67" s="32" t="inlineStr"/>
+      <c r="BY67" s="25" t="inlineStr"/>
       <c r="BZ67" s="33" t="inlineStr"/>
       <c r="CA67" s="33" t="inlineStr"/>
       <c r="CB67" s="33" t="inlineStr"/>
-      <c r="CC67" s="26" t="inlineStr"/>
-      <c r="CD67" s="27" t="inlineStr"/>
+      <c r="CC67" s="33" t="inlineStr"/>
+      <c r="CD67" s="26" t="inlineStr"/>
+      <c r="CE67" s="27" t="inlineStr"/>
+      <c r="CF67" s="27" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="16" t="inlineStr"/>
@@ -7304,7 +7756,7 @@
       <c r="BD68" s="21" t="inlineStr"/>
       <c r="BE68" s="21" t="inlineStr"/>
       <c r="BF68" s="23" t="inlineStr"/>
-      <c r="BG68" s="24" t="inlineStr"/>
+      <c r="BG68" s="32" t="inlineStr"/>
       <c r="BH68" s="32" t="inlineStr"/>
       <c r="BI68" s="32" t="inlineStr"/>
       <c r="BJ68" s="32" t="inlineStr"/>
@@ -7321,13 +7773,15 @@
       <c r="BU68" s="32" t="inlineStr"/>
       <c r="BV68" s="32" t="inlineStr"/>
       <c r="BW68" s="32" t="inlineStr"/>
-      <c r="BX68" s="25" t="inlineStr"/>
-      <c r="BY68" s="33" t="inlineStr"/>
+      <c r="BX68" s="32" t="inlineStr"/>
+      <c r="BY68" s="25" t="inlineStr"/>
       <c r="BZ68" s="33" t="inlineStr"/>
       <c r="CA68" s="33" t="inlineStr"/>
       <c r="CB68" s="33" t="inlineStr"/>
-      <c r="CC68" s="26" t="inlineStr"/>
-      <c r="CD68" s="27" t="inlineStr"/>
+      <c r="CC68" s="33" t="inlineStr"/>
+      <c r="CD68" s="26" t="inlineStr"/>
+      <c r="CE68" s="27" t="inlineStr"/>
+      <c r="CF68" s="27" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="16" t="inlineStr"/>
@@ -7388,7 +7842,7 @@
       <c r="BD69" s="21" t="inlineStr"/>
       <c r="BE69" s="21" t="inlineStr"/>
       <c r="BF69" s="23" t="inlineStr"/>
-      <c r="BG69" s="24" t="inlineStr"/>
+      <c r="BG69" s="32" t="inlineStr"/>
       <c r="BH69" s="32" t="inlineStr"/>
       <c r="BI69" s="32" t="inlineStr"/>
       <c r="BJ69" s="32" t="inlineStr"/>
@@ -7405,13 +7859,15 @@
       <c r="BU69" s="32" t="inlineStr"/>
       <c r="BV69" s="32" t="inlineStr"/>
       <c r="BW69" s="32" t="inlineStr"/>
-      <c r="BX69" s="25" t="inlineStr"/>
-      <c r="BY69" s="33" t="inlineStr"/>
+      <c r="BX69" s="32" t="inlineStr"/>
+      <c r="BY69" s="25" t="inlineStr"/>
       <c r="BZ69" s="33" t="inlineStr"/>
       <c r="CA69" s="33" t="inlineStr"/>
       <c r="CB69" s="33" t="inlineStr"/>
-      <c r="CC69" s="26" t="inlineStr"/>
-      <c r="CD69" s="27" t="inlineStr"/>
+      <c r="CC69" s="33" t="inlineStr"/>
+      <c r="CD69" s="26" t="inlineStr"/>
+      <c r="CE69" s="27" t="inlineStr"/>
+      <c r="CF69" s="27" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="16" t="inlineStr"/>
@@ -7472,7 +7928,7 @@
       <c r="BD70" s="21" t="inlineStr"/>
       <c r="BE70" s="21" t="inlineStr"/>
       <c r="BF70" s="23" t="inlineStr"/>
-      <c r="BG70" s="24" t="inlineStr"/>
+      <c r="BG70" s="32" t="inlineStr"/>
       <c r="BH70" s="32" t="inlineStr"/>
       <c r="BI70" s="32" t="inlineStr"/>
       <c r="BJ70" s="32" t="inlineStr"/>
@@ -7489,13 +7945,15 @@
       <c r="BU70" s="32" t="inlineStr"/>
       <c r="BV70" s="32" t="inlineStr"/>
       <c r="BW70" s="32" t="inlineStr"/>
-      <c r="BX70" s="25" t="inlineStr"/>
-      <c r="BY70" s="33" t="inlineStr"/>
+      <c r="BX70" s="32" t="inlineStr"/>
+      <c r="BY70" s="25" t="inlineStr"/>
       <c r="BZ70" s="33" t="inlineStr"/>
       <c r="CA70" s="33" t="inlineStr"/>
       <c r="CB70" s="33" t="inlineStr"/>
-      <c r="CC70" s="26" t="inlineStr"/>
-      <c r="CD70" s="27" t="inlineStr"/>
+      <c r="CC70" s="33" t="inlineStr"/>
+      <c r="CD70" s="26" t="inlineStr"/>
+      <c r="CE70" s="27" t="inlineStr"/>
+      <c r="CF70" s="27" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="16" t="inlineStr"/>
@@ -7556,7 +8014,7 @@
       <c r="BD71" s="21" t="inlineStr"/>
       <c r="BE71" s="21" t="inlineStr"/>
       <c r="BF71" s="23" t="inlineStr"/>
-      <c r="BG71" s="24" t="inlineStr"/>
+      <c r="BG71" s="32" t="inlineStr"/>
       <c r="BH71" s="32" t="inlineStr"/>
       <c r="BI71" s="32" t="inlineStr"/>
       <c r="BJ71" s="32" t="inlineStr"/>
@@ -7573,13 +8031,15 @@
       <c r="BU71" s="32" t="inlineStr"/>
       <c r="BV71" s="32" t="inlineStr"/>
       <c r="BW71" s="32" t="inlineStr"/>
-      <c r="BX71" s="25" t="inlineStr"/>
-      <c r="BY71" s="33" t="inlineStr"/>
+      <c r="BX71" s="32" t="inlineStr"/>
+      <c r="BY71" s="25" t="inlineStr"/>
       <c r="BZ71" s="33" t="inlineStr"/>
       <c r="CA71" s="33" t="inlineStr"/>
       <c r="CB71" s="33" t="inlineStr"/>
-      <c r="CC71" s="26" t="inlineStr"/>
-      <c r="CD71" s="27" t="inlineStr"/>
+      <c r="CC71" s="33" t="inlineStr"/>
+      <c r="CD71" s="26" t="inlineStr"/>
+      <c r="CE71" s="27" t="inlineStr"/>
+      <c r="CF71" s="27" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="16" t="inlineStr"/>
@@ -7640,7 +8100,7 @@
       <c r="BD72" s="21" t="inlineStr"/>
       <c r="BE72" s="21" t="inlineStr"/>
       <c r="BF72" s="23" t="inlineStr"/>
-      <c r="BG72" s="24" t="inlineStr"/>
+      <c r="BG72" s="32" t="inlineStr"/>
       <c r="BH72" s="32" t="inlineStr"/>
       <c r="BI72" s="32" t="inlineStr"/>
       <c r="BJ72" s="32" t="inlineStr"/>
@@ -7657,13 +8117,15 @@
       <c r="BU72" s="32" t="inlineStr"/>
       <c r="BV72" s="32" t="inlineStr"/>
       <c r="BW72" s="32" t="inlineStr"/>
-      <c r="BX72" s="25" t="inlineStr"/>
-      <c r="BY72" s="33" t="inlineStr"/>
+      <c r="BX72" s="32" t="inlineStr"/>
+      <c r="BY72" s="25" t="inlineStr"/>
       <c r="BZ72" s="33" t="inlineStr"/>
       <c r="CA72" s="33" t="inlineStr"/>
       <c r="CB72" s="33" t="inlineStr"/>
-      <c r="CC72" s="26" t="inlineStr"/>
-      <c r="CD72" s="27" t="inlineStr"/>
+      <c r="CC72" s="33" t="inlineStr"/>
+      <c r="CD72" s="26" t="inlineStr"/>
+      <c r="CE72" s="27" t="inlineStr"/>
+      <c r="CF72" s="27" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="16" t="inlineStr"/>
@@ -7724,7 +8186,7 @@
       <c r="BD73" s="21" t="inlineStr"/>
       <c r="BE73" s="21" t="inlineStr"/>
       <c r="BF73" s="23" t="inlineStr"/>
-      <c r="BG73" s="24" t="inlineStr"/>
+      <c r="BG73" s="32" t="inlineStr"/>
       <c r="BH73" s="32" t="inlineStr"/>
       <c r="BI73" s="32" t="inlineStr"/>
       <c r="BJ73" s="32" t="inlineStr"/>
@@ -7741,13 +8203,15 @@
       <c r="BU73" s="32" t="inlineStr"/>
       <c r="BV73" s="32" t="inlineStr"/>
       <c r="BW73" s="32" t="inlineStr"/>
-      <c r="BX73" s="25" t="inlineStr"/>
-      <c r="BY73" s="33" t="inlineStr"/>
+      <c r="BX73" s="32" t="inlineStr"/>
+      <c r="BY73" s="25" t="inlineStr"/>
       <c r="BZ73" s="33" t="inlineStr"/>
       <c r="CA73" s="33" t="inlineStr"/>
       <c r="CB73" s="33" t="inlineStr"/>
-      <c r="CC73" s="26" t="inlineStr"/>
-      <c r="CD73" s="27" t="inlineStr"/>
+      <c r="CC73" s="33" t="inlineStr"/>
+      <c r="CD73" s="26" t="inlineStr"/>
+      <c r="CE73" s="27" t="inlineStr"/>
+      <c r="CF73" s="27" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="16" t="inlineStr"/>
@@ -7808,7 +8272,7 @@
       <c r="BD74" s="21" t="inlineStr"/>
       <c r="BE74" s="21" t="inlineStr"/>
       <c r="BF74" s="23" t="inlineStr"/>
-      <c r="BG74" s="24" t="inlineStr"/>
+      <c r="BG74" s="32" t="inlineStr"/>
       <c r="BH74" s="32" t="inlineStr"/>
       <c r="BI74" s="32" t="inlineStr"/>
       <c r="BJ74" s="32" t="inlineStr"/>
@@ -7825,13 +8289,15 @@
       <c r="BU74" s="32" t="inlineStr"/>
       <c r="BV74" s="32" t="inlineStr"/>
       <c r="BW74" s="32" t="inlineStr"/>
-      <c r="BX74" s="25" t="inlineStr"/>
-      <c r="BY74" s="33" t="inlineStr"/>
+      <c r="BX74" s="32" t="inlineStr"/>
+      <c r="BY74" s="25" t="inlineStr"/>
       <c r="BZ74" s="33" t="inlineStr"/>
       <c r="CA74" s="33" t="inlineStr"/>
       <c r="CB74" s="33" t="inlineStr"/>
-      <c r="CC74" s="26" t="inlineStr"/>
-      <c r="CD74" s="27" t="inlineStr"/>
+      <c r="CC74" s="33" t="inlineStr"/>
+      <c r="CD74" s="26" t="inlineStr"/>
+      <c r="CE74" s="27" t="inlineStr"/>
+      <c r="CF74" s="27" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="16" t="inlineStr"/>
@@ -7892,7 +8358,7 @@
       <c r="BD75" s="21" t="inlineStr"/>
       <c r="BE75" s="21" t="inlineStr"/>
       <c r="BF75" s="23" t="inlineStr"/>
-      <c r="BG75" s="24" t="inlineStr"/>
+      <c r="BG75" s="32" t="inlineStr"/>
       <c r="BH75" s="32" t="inlineStr"/>
       <c r="BI75" s="32" t="inlineStr"/>
       <c r="BJ75" s="32" t="inlineStr"/>
@@ -7909,13 +8375,15 @@
       <c r="BU75" s="32" t="inlineStr"/>
       <c r="BV75" s="32" t="inlineStr"/>
       <c r="BW75" s="32" t="inlineStr"/>
-      <c r="BX75" s="25" t="inlineStr"/>
-      <c r="BY75" s="33" t="inlineStr"/>
+      <c r="BX75" s="32" t="inlineStr"/>
+      <c r="BY75" s="25" t="inlineStr"/>
       <c r="BZ75" s="33" t="inlineStr"/>
       <c r="CA75" s="33" t="inlineStr"/>
       <c r="CB75" s="33" t="inlineStr"/>
-      <c r="CC75" s="26" t="inlineStr"/>
-      <c r="CD75" s="27" t="inlineStr"/>
+      <c r="CC75" s="33" t="inlineStr"/>
+      <c r="CD75" s="26" t="inlineStr"/>
+      <c r="CE75" s="27" t="inlineStr"/>
+      <c r="CF75" s="27" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="16" t="inlineStr"/>
@@ -7976,7 +8444,7 @@
       <c r="BD76" s="21" t="inlineStr"/>
       <c r="BE76" s="21" t="inlineStr"/>
       <c r="BF76" s="23" t="inlineStr"/>
-      <c r="BG76" s="24" t="inlineStr"/>
+      <c r="BG76" s="32" t="inlineStr"/>
       <c r="BH76" s="32" t="inlineStr"/>
       <c r="BI76" s="32" t="inlineStr"/>
       <c r="BJ76" s="32" t="inlineStr"/>
@@ -7993,13 +8461,15 @@
       <c r="BU76" s="32" t="inlineStr"/>
       <c r="BV76" s="32" t="inlineStr"/>
       <c r="BW76" s="32" t="inlineStr"/>
-      <c r="BX76" s="25" t="inlineStr"/>
-      <c r="BY76" s="33" t="inlineStr"/>
+      <c r="BX76" s="32" t="inlineStr"/>
+      <c r="BY76" s="25" t="inlineStr"/>
       <c r="BZ76" s="33" t="inlineStr"/>
       <c r="CA76" s="33" t="inlineStr"/>
       <c r="CB76" s="33" t="inlineStr"/>
-      <c r="CC76" s="26" t="inlineStr"/>
-      <c r="CD76" s="27" t="inlineStr"/>
+      <c r="CC76" s="33" t="inlineStr"/>
+      <c r="CD76" s="26" t="inlineStr"/>
+      <c r="CE76" s="27" t="inlineStr"/>
+      <c r="CF76" s="27" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="16" t="inlineStr"/>
@@ -8060,7 +8530,7 @@
       <c r="BD77" s="21" t="inlineStr"/>
       <c r="BE77" s="21" t="inlineStr"/>
       <c r="BF77" s="23" t="inlineStr"/>
-      <c r="BG77" s="24" t="inlineStr"/>
+      <c r="BG77" s="32" t="inlineStr"/>
       <c r="BH77" s="32" t="inlineStr"/>
       <c r="BI77" s="32" t="inlineStr"/>
       <c r="BJ77" s="32" t="inlineStr"/>
@@ -8077,13 +8547,15 @@
       <c r="BU77" s="32" t="inlineStr"/>
       <c r="BV77" s="32" t="inlineStr"/>
       <c r="BW77" s="32" t="inlineStr"/>
-      <c r="BX77" s="25" t="inlineStr"/>
-      <c r="BY77" s="33" t="inlineStr"/>
+      <c r="BX77" s="32" t="inlineStr"/>
+      <c r="BY77" s="25" t="inlineStr"/>
       <c r="BZ77" s="33" t="inlineStr"/>
       <c r="CA77" s="33" t="inlineStr"/>
       <c r="CB77" s="33" t="inlineStr"/>
-      <c r="CC77" s="26" t="inlineStr"/>
-      <c r="CD77" s="27" t="inlineStr"/>
+      <c r="CC77" s="33" t="inlineStr"/>
+      <c r="CD77" s="26" t="inlineStr"/>
+      <c r="CE77" s="27" t="inlineStr"/>
+      <c r="CF77" s="27" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="16" t="inlineStr"/>
@@ -8144,7 +8616,7 @@
       <c r="BD78" s="21" t="inlineStr"/>
       <c r="BE78" s="21" t="inlineStr"/>
       <c r="BF78" s="23" t="inlineStr"/>
-      <c r="BG78" s="24" t="inlineStr"/>
+      <c r="BG78" s="32" t="inlineStr"/>
       <c r="BH78" s="32" t="inlineStr"/>
       <c r="BI78" s="32" t="inlineStr"/>
       <c r="BJ78" s="32" t="inlineStr"/>
@@ -8161,13 +8633,15 @@
       <c r="BU78" s="32" t="inlineStr"/>
       <c r="BV78" s="32" t="inlineStr"/>
       <c r="BW78" s="32" t="inlineStr"/>
-      <c r="BX78" s="25" t="inlineStr"/>
-      <c r="BY78" s="33" t="inlineStr"/>
+      <c r="BX78" s="32" t="inlineStr"/>
+      <c r="BY78" s="25" t="inlineStr"/>
       <c r="BZ78" s="33" t="inlineStr"/>
       <c r="CA78" s="33" t="inlineStr"/>
       <c r="CB78" s="33" t="inlineStr"/>
-      <c r="CC78" s="26" t="inlineStr"/>
-      <c r="CD78" s="27" t="inlineStr"/>
+      <c r="CC78" s="33" t="inlineStr"/>
+      <c r="CD78" s="26" t="inlineStr"/>
+      <c r="CE78" s="27" t="inlineStr"/>
+      <c r="CF78" s="27" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="16" t="inlineStr"/>
@@ -8228,7 +8702,7 @@
       <c r="BD79" s="21" t="inlineStr"/>
       <c r="BE79" s="21" t="inlineStr"/>
       <c r="BF79" s="23" t="inlineStr"/>
-      <c r="BG79" s="24" t="inlineStr"/>
+      <c r="BG79" s="32" t="inlineStr"/>
       <c r="BH79" s="32" t="inlineStr"/>
       <c r="BI79" s="32" t="inlineStr"/>
       <c r="BJ79" s="32" t="inlineStr"/>
@@ -8245,13 +8719,15 @@
       <c r="BU79" s="32" t="inlineStr"/>
       <c r="BV79" s="32" t="inlineStr"/>
       <c r="BW79" s="32" t="inlineStr"/>
-      <c r="BX79" s="25" t="inlineStr"/>
-      <c r="BY79" s="33" t="inlineStr"/>
+      <c r="BX79" s="32" t="inlineStr"/>
+      <c r="BY79" s="25" t="inlineStr"/>
       <c r="BZ79" s="33" t="inlineStr"/>
       <c r="CA79" s="33" t="inlineStr"/>
       <c r="CB79" s="33" t="inlineStr"/>
-      <c r="CC79" s="26" t="inlineStr"/>
-      <c r="CD79" s="27" t="inlineStr"/>
+      <c r="CC79" s="33" t="inlineStr"/>
+      <c r="CD79" s="26" t="inlineStr"/>
+      <c r="CE79" s="27" t="inlineStr"/>
+      <c r="CF79" s="27" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="16" t="inlineStr"/>
@@ -8312,7 +8788,7 @@
       <c r="BD80" s="21" t="inlineStr"/>
       <c r="BE80" s="21" t="inlineStr"/>
       <c r="BF80" s="23" t="inlineStr"/>
-      <c r="BG80" s="24" t="inlineStr"/>
+      <c r="BG80" s="32" t="inlineStr"/>
       <c r="BH80" s="32" t="inlineStr"/>
       <c r="BI80" s="32" t="inlineStr"/>
       <c r="BJ80" s="32" t="inlineStr"/>
@@ -8329,13 +8805,15 @@
       <c r="BU80" s="32" t="inlineStr"/>
       <c r="BV80" s="32" t="inlineStr"/>
       <c r="BW80" s="32" t="inlineStr"/>
-      <c r="BX80" s="25" t="inlineStr"/>
-      <c r="BY80" s="33" t="inlineStr"/>
+      <c r="BX80" s="32" t="inlineStr"/>
+      <c r="BY80" s="25" t="inlineStr"/>
       <c r="BZ80" s="33" t="inlineStr"/>
       <c r="CA80" s="33" t="inlineStr"/>
       <c r="CB80" s="33" t="inlineStr"/>
-      <c r="CC80" s="26" t="inlineStr"/>
-      <c r="CD80" s="27" t="inlineStr"/>
+      <c r="CC80" s="33" t="inlineStr"/>
+      <c r="CD80" s="26" t="inlineStr"/>
+      <c r="CE80" s="27" t="inlineStr"/>
+      <c r="CF80" s="27" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="16" t="inlineStr"/>
@@ -8396,7 +8874,7 @@
       <c r="BD81" s="21" t="inlineStr"/>
       <c r="BE81" s="21" t="inlineStr"/>
       <c r="BF81" s="23" t="inlineStr"/>
-      <c r="BG81" s="24" t="inlineStr"/>
+      <c r="BG81" s="32" t="inlineStr"/>
       <c r="BH81" s="32" t="inlineStr"/>
       <c r="BI81" s="32" t="inlineStr"/>
       <c r="BJ81" s="32" t="inlineStr"/>
@@ -8413,13 +8891,15 @@
       <c r="BU81" s="32" t="inlineStr"/>
       <c r="BV81" s="32" t="inlineStr"/>
       <c r="BW81" s="32" t="inlineStr"/>
-      <c r="BX81" s="25" t="inlineStr"/>
-      <c r="BY81" s="33" t="inlineStr"/>
+      <c r="BX81" s="32" t="inlineStr"/>
+      <c r="BY81" s="25" t="inlineStr"/>
       <c r="BZ81" s="33" t="inlineStr"/>
       <c r="CA81" s="33" t="inlineStr"/>
       <c r="CB81" s="33" t="inlineStr"/>
-      <c r="CC81" s="26" t="inlineStr"/>
-      <c r="CD81" s="27" t="inlineStr"/>
+      <c r="CC81" s="33" t="inlineStr"/>
+      <c r="CD81" s="26" t="inlineStr"/>
+      <c r="CE81" s="27" t="inlineStr"/>
+      <c r="CF81" s="27" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="16" t="inlineStr"/>
@@ -8480,7 +8960,7 @@
       <c r="BD82" s="21" t="inlineStr"/>
       <c r="BE82" s="21" t="inlineStr"/>
       <c r="BF82" s="23" t="inlineStr"/>
-      <c r="BG82" s="24" t="inlineStr"/>
+      <c r="BG82" s="32" t="inlineStr"/>
       <c r="BH82" s="32" t="inlineStr"/>
       <c r="BI82" s="32" t="inlineStr"/>
       <c r="BJ82" s="32" t="inlineStr"/>
@@ -8497,13 +8977,15 @@
       <c r="BU82" s="32" t="inlineStr"/>
       <c r="BV82" s="32" t="inlineStr"/>
       <c r="BW82" s="32" t="inlineStr"/>
-      <c r="BX82" s="25" t="inlineStr"/>
-      <c r="BY82" s="33" t="inlineStr"/>
+      <c r="BX82" s="32" t="inlineStr"/>
+      <c r="BY82" s="25" t="inlineStr"/>
       <c r="BZ82" s="33" t="inlineStr"/>
       <c r="CA82" s="33" t="inlineStr"/>
       <c r="CB82" s="33" t="inlineStr"/>
-      <c r="CC82" s="26" t="inlineStr"/>
-      <c r="CD82" s="27" t="inlineStr"/>
+      <c r="CC82" s="33" t="inlineStr"/>
+      <c r="CD82" s="26" t="inlineStr"/>
+      <c r="CE82" s="27" t="inlineStr"/>
+      <c r="CF82" s="27" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="16" t="inlineStr"/>
@@ -8564,7 +9046,7 @@
       <c r="BD83" s="21" t="inlineStr"/>
       <c r="BE83" s="21" t="inlineStr"/>
       <c r="BF83" s="23" t="inlineStr"/>
-      <c r="BG83" s="24" t="inlineStr"/>
+      <c r="BG83" s="32" t="inlineStr"/>
       <c r="BH83" s="32" t="inlineStr"/>
       <c r="BI83" s="32" t="inlineStr"/>
       <c r="BJ83" s="32" t="inlineStr"/>
@@ -8581,13 +9063,15 @@
       <c r="BU83" s="32" t="inlineStr"/>
       <c r="BV83" s="32" t="inlineStr"/>
       <c r="BW83" s="32" t="inlineStr"/>
-      <c r="BX83" s="25" t="inlineStr"/>
-      <c r="BY83" s="33" t="inlineStr"/>
+      <c r="BX83" s="32" t="inlineStr"/>
+      <c r="BY83" s="25" t="inlineStr"/>
       <c r="BZ83" s="33" t="inlineStr"/>
       <c r="CA83" s="33" t="inlineStr"/>
       <c r="CB83" s="33" t="inlineStr"/>
-      <c r="CC83" s="26" t="inlineStr"/>
-      <c r="CD83" s="27" t="inlineStr"/>
+      <c r="CC83" s="33" t="inlineStr"/>
+      <c r="CD83" s="26" t="inlineStr"/>
+      <c r="CE83" s="27" t="inlineStr"/>
+      <c r="CF83" s="27" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="16" t="inlineStr"/>
@@ -8648,7 +9132,7 @@
       <c r="BD84" s="21" t="inlineStr"/>
       <c r="BE84" s="21" t="inlineStr"/>
       <c r="BF84" s="23" t="inlineStr"/>
-      <c r="BG84" s="24" t="inlineStr"/>
+      <c r="BG84" s="32" t="inlineStr"/>
       <c r="BH84" s="32" t="inlineStr"/>
       <c r="BI84" s="32" t="inlineStr"/>
       <c r="BJ84" s="32" t="inlineStr"/>
@@ -8665,13 +9149,15 @@
       <c r="BU84" s="32" t="inlineStr"/>
       <c r="BV84" s="32" t="inlineStr"/>
       <c r="BW84" s="32" t="inlineStr"/>
-      <c r="BX84" s="25" t="inlineStr"/>
-      <c r="BY84" s="33" t="inlineStr"/>
+      <c r="BX84" s="32" t="inlineStr"/>
+      <c r="BY84" s="25" t="inlineStr"/>
       <c r="BZ84" s="33" t="inlineStr"/>
       <c r="CA84" s="33" t="inlineStr"/>
       <c r="CB84" s="33" t="inlineStr"/>
-      <c r="CC84" s="26" t="inlineStr"/>
-      <c r="CD84" s="27" t="inlineStr"/>
+      <c r="CC84" s="33" t="inlineStr"/>
+      <c r="CD84" s="26" t="inlineStr"/>
+      <c r="CE84" s="27" t="inlineStr"/>
+      <c r="CF84" s="27" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="16" t="inlineStr"/>
@@ -8732,7 +9218,7 @@
       <c r="BD85" s="21" t="inlineStr"/>
       <c r="BE85" s="21" t="inlineStr"/>
       <c r="BF85" s="23" t="inlineStr"/>
-      <c r="BG85" s="24" t="inlineStr"/>
+      <c r="BG85" s="32" t="inlineStr"/>
       <c r="BH85" s="32" t="inlineStr"/>
       <c r="BI85" s="32" t="inlineStr"/>
       <c r="BJ85" s="32" t="inlineStr"/>
@@ -8749,13 +9235,15 @@
       <c r="BU85" s="32" t="inlineStr"/>
       <c r="BV85" s="32" t="inlineStr"/>
       <c r="BW85" s="32" t="inlineStr"/>
-      <c r="BX85" s="25" t="inlineStr"/>
-      <c r="BY85" s="33" t="inlineStr"/>
+      <c r="BX85" s="32" t="inlineStr"/>
+      <c r="BY85" s="25" t="inlineStr"/>
       <c r="BZ85" s="33" t="inlineStr"/>
       <c r="CA85" s="33" t="inlineStr"/>
       <c r="CB85" s="33" t="inlineStr"/>
-      <c r="CC85" s="26" t="inlineStr"/>
-      <c r="CD85" s="27" t="inlineStr"/>
+      <c r="CC85" s="33" t="inlineStr"/>
+      <c r="CD85" s="26" t="inlineStr"/>
+      <c r="CE85" s="27" t="inlineStr"/>
+      <c r="CF85" s="27" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="16" t="inlineStr"/>
@@ -8816,7 +9304,7 @@
       <c r="BD86" s="21" t="inlineStr"/>
       <c r="BE86" s="21" t="inlineStr"/>
       <c r="BF86" s="23" t="inlineStr"/>
-      <c r="BG86" s="24" t="inlineStr"/>
+      <c r="BG86" s="32" t="inlineStr"/>
       <c r="BH86" s="32" t="inlineStr"/>
       <c r="BI86" s="32" t="inlineStr"/>
       <c r="BJ86" s="32" t="inlineStr"/>
@@ -8833,13 +9321,15 @@
       <c r="BU86" s="32" t="inlineStr"/>
       <c r="BV86" s="32" t="inlineStr"/>
       <c r="BW86" s="32" t="inlineStr"/>
-      <c r="BX86" s="25" t="inlineStr"/>
-      <c r="BY86" s="33" t="inlineStr"/>
+      <c r="BX86" s="32" t="inlineStr"/>
+      <c r="BY86" s="25" t="inlineStr"/>
       <c r="BZ86" s="33" t="inlineStr"/>
       <c r="CA86" s="33" t="inlineStr"/>
       <c r="CB86" s="33" t="inlineStr"/>
-      <c r="CC86" s="26" t="inlineStr"/>
-      <c r="CD86" s="27" t="inlineStr"/>
+      <c r="CC86" s="33" t="inlineStr"/>
+      <c r="CD86" s="26" t="inlineStr"/>
+      <c r="CE86" s="27" t="inlineStr"/>
+      <c r="CF86" s="27" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="16" t="inlineStr"/>
@@ -8900,7 +9390,7 @@
       <c r="BD87" s="21" t="inlineStr"/>
       <c r="BE87" s="21" t="inlineStr"/>
       <c r="BF87" s="23" t="inlineStr"/>
-      <c r="BG87" s="24" t="inlineStr"/>
+      <c r="BG87" s="32" t="inlineStr"/>
       <c r="BH87" s="32" t="inlineStr"/>
       <c r="BI87" s="32" t="inlineStr"/>
       <c r="BJ87" s="32" t="inlineStr"/>
@@ -8917,13 +9407,15 @@
       <c r="BU87" s="32" t="inlineStr"/>
       <c r="BV87" s="32" t="inlineStr"/>
       <c r="BW87" s="32" t="inlineStr"/>
-      <c r="BX87" s="25" t="inlineStr"/>
-      <c r="BY87" s="33" t="inlineStr"/>
+      <c r="BX87" s="32" t="inlineStr"/>
+      <c r="BY87" s="25" t="inlineStr"/>
       <c r="BZ87" s="33" t="inlineStr"/>
       <c r="CA87" s="33" t="inlineStr"/>
       <c r="CB87" s="33" t="inlineStr"/>
-      <c r="CC87" s="26" t="inlineStr"/>
-      <c r="CD87" s="27" t="inlineStr"/>
+      <c r="CC87" s="33" t="inlineStr"/>
+      <c r="CD87" s="26" t="inlineStr"/>
+      <c r="CE87" s="27" t="inlineStr"/>
+      <c r="CF87" s="27" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="16" t="inlineStr"/>
@@ -8984,7 +9476,7 @@
       <c r="BD88" s="21" t="inlineStr"/>
       <c r="BE88" s="21" t="inlineStr"/>
       <c r="BF88" s="23" t="inlineStr"/>
-      <c r="BG88" s="24" t="inlineStr"/>
+      <c r="BG88" s="32" t="inlineStr"/>
       <c r="BH88" s="32" t="inlineStr"/>
       <c r="BI88" s="32" t="inlineStr"/>
       <c r="BJ88" s="32" t="inlineStr"/>
@@ -9001,13 +9493,15 @@
       <c r="BU88" s="32" t="inlineStr"/>
       <c r="BV88" s="32" t="inlineStr"/>
       <c r="BW88" s="32" t="inlineStr"/>
-      <c r="BX88" s="25" t="inlineStr"/>
-      <c r="BY88" s="33" t="inlineStr"/>
+      <c r="BX88" s="32" t="inlineStr"/>
+      <c r="BY88" s="25" t="inlineStr"/>
       <c r="BZ88" s="33" t="inlineStr"/>
       <c r="CA88" s="33" t="inlineStr"/>
       <c r="CB88" s="33" t="inlineStr"/>
-      <c r="CC88" s="26" t="inlineStr"/>
-      <c r="CD88" s="27" t="inlineStr"/>
+      <c r="CC88" s="33" t="inlineStr"/>
+      <c r="CD88" s="26" t="inlineStr"/>
+      <c r="CE88" s="27" t="inlineStr"/>
+      <c r="CF88" s="27" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="16" t="inlineStr"/>
@@ -9068,7 +9562,7 @@
       <c r="BD89" s="21" t="inlineStr"/>
       <c r="BE89" s="21" t="inlineStr"/>
       <c r="BF89" s="23" t="inlineStr"/>
-      <c r="BG89" s="24" t="inlineStr"/>
+      <c r="BG89" s="32" t="inlineStr"/>
       <c r="BH89" s="32" t="inlineStr"/>
       <c r="BI89" s="32" t="inlineStr"/>
       <c r="BJ89" s="32" t="inlineStr"/>
@@ -9085,13 +9579,15 @@
       <c r="BU89" s="32" t="inlineStr"/>
       <c r="BV89" s="32" t="inlineStr"/>
       <c r="BW89" s="32" t="inlineStr"/>
-      <c r="BX89" s="25" t="inlineStr"/>
-      <c r="BY89" s="33" t="inlineStr"/>
+      <c r="BX89" s="32" t="inlineStr"/>
+      <c r="BY89" s="25" t="inlineStr"/>
       <c r="BZ89" s="33" t="inlineStr"/>
       <c r="CA89" s="33" t="inlineStr"/>
       <c r="CB89" s="33" t="inlineStr"/>
-      <c r="CC89" s="26" t="inlineStr"/>
-      <c r="CD89" s="27" t="inlineStr"/>
+      <c r="CC89" s="33" t="inlineStr"/>
+      <c r="CD89" s="26" t="inlineStr"/>
+      <c r="CE89" s="27" t="inlineStr"/>
+      <c r="CF89" s="27" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="16" t="inlineStr"/>
@@ -9152,7 +9648,7 @@
       <c r="BD90" s="21" t="inlineStr"/>
       <c r="BE90" s="21" t="inlineStr"/>
       <c r="BF90" s="23" t="inlineStr"/>
-      <c r="BG90" s="24" t="inlineStr"/>
+      <c r="BG90" s="32" t="inlineStr"/>
       <c r="BH90" s="32" t="inlineStr"/>
       <c r="BI90" s="32" t="inlineStr"/>
       <c r="BJ90" s="32" t="inlineStr"/>
@@ -9169,13 +9665,15 @@
       <c r="BU90" s="32" t="inlineStr"/>
       <c r="BV90" s="32" t="inlineStr"/>
       <c r="BW90" s="32" t="inlineStr"/>
-      <c r="BX90" s="25" t="inlineStr"/>
-      <c r="BY90" s="33" t="inlineStr"/>
+      <c r="BX90" s="32" t="inlineStr"/>
+      <c r="BY90" s="25" t="inlineStr"/>
       <c r="BZ90" s="33" t="inlineStr"/>
       <c r="CA90" s="33" t="inlineStr"/>
       <c r="CB90" s="33" t="inlineStr"/>
-      <c r="CC90" s="26" t="inlineStr"/>
-      <c r="CD90" s="27" t="inlineStr"/>
+      <c r="CC90" s="33" t="inlineStr"/>
+      <c r="CD90" s="26" t="inlineStr"/>
+      <c r="CE90" s="27" t="inlineStr"/>
+      <c r="CF90" s="27" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="16" t="inlineStr"/>
@@ -9236,7 +9734,7 @@
       <c r="BD91" s="21" t="inlineStr"/>
       <c r="BE91" s="21" t="inlineStr"/>
       <c r="BF91" s="23" t="inlineStr"/>
-      <c r="BG91" s="24" t="inlineStr"/>
+      <c r="BG91" s="32" t="inlineStr"/>
       <c r="BH91" s="32" t="inlineStr"/>
       <c r="BI91" s="32" t="inlineStr"/>
       <c r="BJ91" s="32" t="inlineStr"/>
@@ -9253,13 +9751,15 @@
       <c r="BU91" s="32" t="inlineStr"/>
       <c r="BV91" s="32" t="inlineStr"/>
       <c r="BW91" s="32" t="inlineStr"/>
-      <c r="BX91" s="25" t="inlineStr"/>
-      <c r="BY91" s="33" t="inlineStr"/>
+      <c r="BX91" s="32" t="inlineStr"/>
+      <c r="BY91" s="25" t="inlineStr"/>
       <c r="BZ91" s="33" t="inlineStr"/>
       <c r="CA91" s="33" t="inlineStr"/>
       <c r="CB91" s="33" t="inlineStr"/>
-      <c r="CC91" s="26" t="inlineStr"/>
-      <c r="CD91" s="27" t="inlineStr"/>
+      <c r="CC91" s="33" t="inlineStr"/>
+      <c r="CD91" s="26" t="inlineStr"/>
+      <c r="CE91" s="27" t="inlineStr"/>
+      <c r="CF91" s="27" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="16" t="inlineStr"/>
@@ -9320,7 +9820,7 @@
       <c r="BD92" s="21" t="inlineStr"/>
       <c r="BE92" s="21" t="inlineStr"/>
       <c r="BF92" s="23" t="inlineStr"/>
-      <c r="BG92" s="24" t="inlineStr"/>
+      <c r="BG92" s="32" t="inlineStr"/>
       <c r="BH92" s="32" t="inlineStr"/>
       <c r="BI92" s="32" t="inlineStr"/>
       <c r="BJ92" s="32" t="inlineStr"/>
@@ -9337,13 +9837,15 @@
       <c r="BU92" s="32" t="inlineStr"/>
       <c r="BV92" s="32" t="inlineStr"/>
       <c r="BW92" s="32" t="inlineStr"/>
-      <c r="BX92" s="25" t="inlineStr"/>
-      <c r="BY92" s="33" t="inlineStr"/>
+      <c r="BX92" s="32" t="inlineStr"/>
+      <c r="BY92" s="25" t="inlineStr"/>
       <c r="BZ92" s="33" t="inlineStr"/>
       <c r="CA92" s="33" t="inlineStr"/>
       <c r="CB92" s="33" t="inlineStr"/>
-      <c r="CC92" s="26" t="inlineStr"/>
-      <c r="CD92" s="27" t="inlineStr"/>
+      <c r="CC92" s="33" t="inlineStr"/>
+      <c r="CD92" s="26" t="inlineStr"/>
+      <c r="CE92" s="27" t="inlineStr"/>
+      <c r="CF92" s="27" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="16" t="inlineStr"/>
@@ -9404,7 +9906,7 @@
       <c r="BD93" s="21" t="inlineStr"/>
       <c r="BE93" s="21" t="inlineStr"/>
       <c r="BF93" s="23" t="inlineStr"/>
-      <c r="BG93" s="24" t="inlineStr"/>
+      <c r="BG93" s="32" t="inlineStr"/>
       <c r="BH93" s="32" t="inlineStr"/>
       <c r="BI93" s="32" t="inlineStr"/>
       <c r="BJ93" s="32" t="inlineStr"/>
@@ -9421,13 +9923,15 @@
       <c r="BU93" s="32" t="inlineStr"/>
       <c r="BV93" s="32" t="inlineStr"/>
       <c r="BW93" s="32" t="inlineStr"/>
-      <c r="BX93" s="25" t="inlineStr"/>
-      <c r="BY93" s="33" t="inlineStr"/>
+      <c r="BX93" s="32" t="inlineStr"/>
+      <c r="BY93" s="25" t="inlineStr"/>
       <c r="BZ93" s="33" t="inlineStr"/>
       <c r="CA93" s="33" t="inlineStr"/>
       <c r="CB93" s="33" t="inlineStr"/>
-      <c r="CC93" s="26" t="inlineStr"/>
-      <c r="CD93" s="27" t="inlineStr"/>
+      <c r="CC93" s="33" t="inlineStr"/>
+      <c r="CD93" s="26" t="inlineStr"/>
+      <c r="CE93" s="27" t="inlineStr"/>
+      <c r="CF93" s="27" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="16" t="inlineStr"/>
@@ -9488,7 +9992,7 @@
       <c r="BD94" s="21" t="inlineStr"/>
       <c r="BE94" s="21" t="inlineStr"/>
       <c r="BF94" s="23" t="inlineStr"/>
-      <c r="BG94" s="24" t="inlineStr"/>
+      <c r="BG94" s="32" t="inlineStr"/>
       <c r="BH94" s="32" t="inlineStr"/>
       <c r="BI94" s="32" t="inlineStr"/>
       <c r="BJ94" s="32" t="inlineStr"/>
@@ -9505,13 +10009,15 @@
       <c r="BU94" s="32" t="inlineStr"/>
       <c r="BV94" s="32" t="inlineStr"/>
       <c r="BW94" s="32" t="inlineStr"/>
-      <c r="BX94" s="25" t="inlineStr"/>
-      <c r="BY94" s="33" t="inlineStr"/>
+      <c r="BX94" s="32" t="inlineStr"/>
+      <c r="BY94" s="25" t="inlineStr"/>
       <c r="BZ94" s="33" t="inlineStr"/>
       <c r="CA94" s="33" t="inlineStr"/>
       <c r="CB94" s="33" t="inlineStr"/>
-      <c r="CC94" s="26" t="inlineStr"/>
-      <c r="CD94" s="27" t="inlineStr"/>
+      <c r="CC94" s="33" t="inlineStr"/>
+      <c r="CD94" s="26" t="inlineStr"/>
+      <c r="CE94" s="27" t="inlineStr"/>
+      <c r="CF94" s="27" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="16" t="inlineStr"/>
@@ -9572,7 +10078,7 @@
       <c r="BD95" s="21" t="inlineStr"/>
       <c r="BE95" s="21" t="inlineStr"/>
       <c r="BF95" s="23" t="inlineStr"/>
-      <c r="BG95" s="24" t="inlineStr"/>
+      <c r="BG95" s="32" t="inlineStr"/>
       <c r="BH95" s="32" t="inlineStr"/>
       <c r="BI95" s="32" t="inlineStr"/>
       <c r="BJ95" s="32" t="inlineStr"/>
@@ -9589,13 +10095,15 @@
       <c r="BU95" s="32" t="inlineStr"/>
       <c r="BV95" s="32" t="inlineStr"/>
       <c r="BW95" s="32" t="inlineStr"/>
-      <c r="BX95" s="25" t="inlineStr"/>
-      <c r="BY95" s="33" t="inlineStr"/>
+      <c r="BX95" s="32" t="inlineStr"/>
+      <c r="BY95" s="25" t="inlineStr"/>
       <c r="BZ95" s="33" t="inlineStr"/>
       <c r="CA95" s="33" t="inlineStr"/>
       <c r="CB95" s="33" t="inlineStr"/>
-      <c r="CC95" s="26" t="inlineStr"/>
-      <c r="CD95" s="27" t="inlineStr"/>
+      <c r="CC95" s="33" t="inlineStr"/>
+      <c r="CD95" s="26" t="inlineStr"/>
+      <c r="CE95" s="27" t="inlineStr"/>
+      <c r="CF95" s="27" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="16" t="inlineStr"/>
@@ -9656,7 +10164,7 @@
       <c r="BD96" s="21" t="inlineStr"/>
       <c r="BE96" s="21" t="inlineStr"/>
       <c r="BF96" s="23" t="inlineStr"/>
-      <c r="BG96" s="24" t="inlineStr"/>
+      <c r="BG96" s="32" t="inlineStr"/>
       <c r="BH96" s="32" t="inlineStr"/>
       <c r="BI96" s="32" t="inlineStr"/>
       <c r="BJ96" s="32" t="inlineStr"/>
@@ -9673,13 +10181,15 @@
       <c r="BU96" s="32" t="inlineStr"/>
       <c r="BV96" s="32" t="inlineStr"/>
       <c r="BW96" s="32" t="inlineStr"/>
-      <c r="BX96" s="25" t="inlineStr"/>
-      <c r="BY96" s="33" t="inlineStr"/>
+      <c r="BX96" s="32" t="inlineStr"/>
+      <c r="BY96" s="25" t="inlineStr"/>
       <c r="BZ96" s="33" t="inlineStr"/>
       <c r="CA96" s="33" t="inlineStr"/>
       <c r="CB96" s="33" t="inlineStr"/>
-      <c r="CC96" s="26" t="inlineStr"/>
-      <c r="CD96" s="27" t="inlineStr"/>
+      <c r="CC96" s="33" t="inlineStr"/>
+      <c r="CD96" s="26" t="inlineStr"/>
+      <c r="CE96" s="27" t="inlineStr"/>
+      <c r="CF96" s="27" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="16" t="inlineStr"/>
@@ -9740,7 +10250,7 @@
       <c r="BD97" s="21" t="inlineStr"/>
       <c r="BE97" s="21" t="inlineStr"/>
       <c r="BF97" s="23" t="inlineStr"/>
-      <c r="BG97" s="24" t="inlineStr"/>
+      <c r="BG97" s="32" t="inlineStr"/>
       <c r="BH97" s="32" t="inlineStr"/>
       <c r="BI97" s="32" t="inlineStr"/>
       <c r="BJ97" s="32" t="inlineStr"/>
@@ -9757,13 +10267,15 @@
       <c r="BU97" s="32" t="inlineStr"/>
       <c r="BV97" s="32" t="inlineStr"/>
       <c r="BW97" s="32" t="inlineStr"/>
-      <c r="BX97" s="25" t="inlineStr"/>
-      <c r="BY97" s="33" t="inlineStr"/>
+      <c r="BX97" s="32" t="inlineStr"/>
+      <c r="BY97" s="25" t="inlineStr"/>
       <c r="BZ97" s="33" t="inlineStr"/>
       <c r="CA97" s="33" t="inlineStr"/>
       <c r="CB97" s="33" t="inlineStr"/>
-      <c r="CC97" s="26" t="inlineStr"/>
-      <c r="CD97" s="27" t="inlineStr"/>
+      <c r="CC97" s="33" t="inlineStr"/>
+      <c r="CD97" s="26" t="inlineStr"/>
+      <c r="CE97" s="27" t="inlineStr"/>
+      <c r="CF97" s="27" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="16" t="inlineStr"/>
@@ -9824,7 +10336,7 @@
       <c r="BD98" s="21" t="inlineStr"/>
       <c r="BE98" s="21" t="inlineStr"/>
       <c r="BF98" s="23" t="inlineStr"/>
-      <c r="BG98" s="24" t="inlineStr"/>
+      <c r="BG98" s="32" t="inlineStr"/>
       <c r="BH98" s="32" t="inlineStr"/>
       <c r="BI98" s="32" t="inlineStr"/>
       <c r="BJ98" s="32" t="inlineStr"/>
@@ -9841,13 +10353,15 @@
       <c r="BU98" s="32" t="inlineStr"/>
       <c r="BV98" s="32" t="inlineStr"/>
       <c r="BW98" s="32" t="inlineStr"/>
-      <c r="BX98" s="25" t="inlineStr"/>
-      <c r="BY98" s="33" t="inlineStr"/>
+      <c r="BX98" s="32" t="inlineStr"/>
+      <c r="BY98" s="25" t="inlineStr"/>
       <c r="BZ98" s="33" t="inlineStr"/>
       <c r="CA98" s="33" t="inlineStr"/>
       <c r="CB98" s="33" t="inlineStr"/>
-      <c r="CC98" s="26" t="inlineStr"/>
-      <c r="CD98" s="27" t="inlineStr"/>
+      <c r="CC98" s="33" t="inlineStr"/>
+      <c r="CD98" s="26" t="inlineStr"/>
+      <c r="CE98" s="27" t="inlineStr"/>
+      <c r="CF98" s="27" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="16" t="inlineStr"/>
@@ -9908,7 +10422,7 @@
       <c r="BD99" s="21" t="inlineStr"/>
       <c r="BE99" s="21" t="inlineStr"/>
       <c r="BF99" s="23" t="inlineStr"/>
-      <c r="BG99" s="24" t="inlineStr"/>
+      <c r="BG99" s="32" t="inlineStr"/>
       <c r="BH99" s="32" t="inlineStr"/>
       <c r="BI99" s="32" t="inlineStr"/>
       <c r="BJ99" s="32" t="inlineStr"/>
@@ -9925,22 +10439,27 @@
       <c r="BU99" s="32" t="inlineStr"/>
       <c r="BV99" s="32" t="inlineStr"/>
       <c r="BW99" s="32" t="inlineStr"/>
-      <c r="BX99" s="25" t="inlineStr"/>
-      <c r="BY99" s="33" t="inlineStr"/>
+      <c r="BX99" s="32" t="inlineStr"/>
+      <c r="BY99" s="25" t="inlineStr"/>
       <c r="BZ99" s="33" t="inlineStr"/>
       <c r="CA99" s="33" t="inlineStr"/>
       <c r="CB99" s="33" t="inlineStr"/>
-      <c r="CC99" s="26" t="inlineStr"/>
-      <c r="CD99" s="27" t="inlineStr"/>
+      <c r="CC99" s="33" t="inlineStr"/>
+      <c r="CD99" s="26" t="inlineStr"/>
+      <c r="CE99" s="27" t="inlineStr"/>
+      <c r="CF99" s="27" t="inlineStr"/>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation sqref="AB2:AB100 AC2:AC100 AO2:AO100 AR2:AR100 BH2:BH100 BI2:BI100 BJ2:BJ100 BK2:BK100 BL2:BL100 BM2:BM100 BN2:BN100 BO2:BO100 BP2:BP100 BQ2:BQ100 BR2:BR100 BS2:BS100 BT2:BT100 BU2:BU100 BV2:BV100 BW2:BW100" showErrorMessage="1" showInputMessage="1" allowBlank="1" errorTitle="Invalid Value" error="Please select true or false, or leave blank." promptTitle="List Selection" prompt="Please select from the list" type="list">
+  <dataValidations count="5">
+    <dataValidation sqref="AB2:AB100 AC2:AC100 AO2:AO100 AR2:AR100 BG2:BG100 BH2:BH100 BI2:BI100 BJ2:BJ100 BK2:BK100 BL2:BL100 BM2:BM100 BN2:BN100 BO2:BO100 BP2:BP100 BQ2:BQ100 BR2:BR100 BS2:BS100 BT2:BT100 BU2:BU100 BV2:BV100 BW2:BW100 BX2:BX100 BZ2:BZ100 CA2:CA100 CB2:CB100 CC2:CC100" showErrorMessage="1" showInputMessage="1" allowBlank="1" errorTitle="Invalid Value" error="Please select true or false, or leave blank." promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation sqref="H2:H100 AV2:AV100 CC2:CC100" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Invalid Entry" error="This value must be a date" promptTitle="Date Field" prompt="Please enter a date" type="date"/>
+    <dataValidation sqref="H2:H100 AV2:AV100 CE2:CE100" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Invalid Entry" error="This value must be a date" promptTitle="Date Field" prompt="Please enter a date" type="date"/>
     <dataValidation sqref="F2:F100" showErrorMessage="1" showInputMessage="1" allowBlank="1" errorTitle="Invalid Entry" error="Must be one of the following: &quot;public&quot;, &quot;non-public&quot; or &quot;restricted public&quot; " type="list">
       <formula1>"public,non-public,restricted public"</formula1>
+    </dataValidation>
+    <dataValidation sqref="G2:G100" showErrorMessage="1" showInputMessage="1" allowBlank="1" errorTitle="Invalid Entry" error="Must be one of the following: &quot;public&quot; or &quot;non-public&quot; " type="list">
+      <formula1>"public,non-public"</formula1>
     </dataValidation>
     <dataValidation sqref="AA2:AA100" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Invalid Entry" error="This value must be a number between 1 and 100" type="whole" operator="lessThan">
       <formula1>101</formula1>

--- a/src/tests/test_excel-1.xlsx
+++ b/src/tests/test_excel-1.xlsx
@@ -10450,7 +10450,7 @@
       <c r="CF99" s="27" t="inlineStr"/>
     </row>
   </sheetData>
-  <dataValidations count="5">
+  <dataValidations count="6">
     <dataValidation sqref="AB2:AB100 AC2:AC100 AO2:AO100 AR2:AR100 BG2:BG100 BH2:BH100 BI2:BI100 BJ2:BJ100 BK2:BK100 BL2:BL100 BM2:BM100 BN2:BN100 BO2:BO100 BP2:BP100 BQ2:BQ100 BR2:BR100 BS2:BS100 BT2:BT100 BU2:BU100 BV2:BV100 BW2:BW100 BX2:BX100 BZ2:BZ100 CA2:CA100 CB2:CB100 CC2:CC100" showErrorMessage="1" showInputMessage="1" allowBlank="1" errorTitle="Invalid Value" error="Please select true or false, or leave blank." promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
@@ -10464,6 +10464,9 @@
     <dataValidation sqref="AA2:AA100" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Invalid Entry" error="This value must be a number between 1 and 100" type="whole" operator="lessThan">
       <formula1>101</formula1>
     </dataValidation>
+    <dataValidation sqref="A2:A100" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Invalid Entry" error="This value must be string with no spaces and a max of 128 chars" type="custom">
+      <formula1>AND(LEN(A2)&lt;129,NOT(ISNUMBER(SEARCH(" ",A2))))</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
